--- a/client/test_results/unfiltered_chrome_test_results.xlsx
+++ b/client/test_results/unfiltered_chrome_test_results.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>2.546945095062256</v>
+        <v>0.5121479034423828</v>
       </c>
       <c r="D2" t="n">
-        <v>67.488</v>
+        <v>67.27800000000001</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>1.031623840332031</v>
+        <v>0.1740388870239258</v>
       </c>
       <c r="D3" t="n">
-        <v>39.201</v>
+        <v>38.991</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>8.060265302658081</v>
+        <v>0.9380471706390381</v>
       </c>
       <c r="D4" t="n">
-        <v>56.383</v>
+        <v>56.173</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7101116180419922</v>
+        <v>0.3974390029907227</v>
       </c>
       <c r="D5" t="n">
-        <v>73.455</v>
+        <v>73.245</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2713463306427002</v>
+        <v>0.1695139408111572</v>
       </c>
       <c r="D6" t="n">
-        <v>6.203</v>
+        <v>6.017</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2376453876495361</v>
+        <v>0.1692137718200684</v>
       </c>
       <c r="D7" t="n">
-        <v>6.203</v>
+        <v>6.017</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5329620838165283</v>
+        <v>0.5016591548919678</v>
       </c>
       <c r="D8" t="n">
-        <v>6.245</v>
+        <v>54.218</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4142382144927979</v>
+        <v>0.4957399368286133</v>
       </c>
       <c r="D9" t="n">
-        <v>6.245</v>
+        <v>71.29000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3638429641723633</v>
+        <v>0.1831440925598145</v>
       </c>
       <c r="D10" t="n">
-        <v>8.182</v>
+        <v>7.972</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3889529705047607</v>
+        <v>0.1768581867218018</v>
       </c>
       <c r="D11" t="n">
-        <v>8.182</v>
+        <v>7.972</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5396063327789307</v>
+        <v>0.4625730514526367</v>
       </c>
       <c r="D12" t="n">
-        <v>8.224</v>
+        <v>56.173</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4539158344268799</v>
+        <v>0.404789924621582</v>
       </c>
       <c r="D13" t="n">
-        <v>8.224</v>
+        <v>73.245</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3259048461914062</v>
+        <v>0.1723949909210205</v>
       </c>
       <c r="D14" t="n">
-        <v>64.608</v>
+        <v>64.398</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4736659526824951</v>
+        <v>0.1738078594207764</v>
       </c>
       <c r="D15" t="n">
-        <v>523.016</v>
+        <v>522.806</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7082982063293457</v>
+        <v>0.4329590797424316</v>
       </c>
       <c r="D16" t="n">
-        <v>58.303</v>
+        <v>58.093</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.050940752029419</v>
+        <v>0.5745940208435059</v>
       </c>
       <c r="D17" t="n">
-        <v>522.878</v>
+        <v>522.668</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4154696464538574</v>
+        <v>0.1825730800628662</v>
       </c>
       <c r="D18" t="n">
-        <v>6.401</v>
+        <v>6.215</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2877435684204102</v>
+        <v>0.1899170875549316</v>
       </c>
       <c r="D19" t="n">
-        <v>6.401</v>
+        <v>6.215</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>0.5482933521270752</v>
+        <v>0.4363090991973877</v>
       </c>
       <c r="D20" t="n">
-        <v>6.263</v>
+        <v>56.138</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>0.535696268081665</v>
+        <v>0.5788819789886475</v>
       </c>
       <c r="D21" t="n">
-        <v>6.263</v>
+        <v>520.713</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3096747398376465</v>
+        <v>0.1883602142333984</v>
       </c>
       <c r="D22" t="n">
-        <v>8.380000000000001</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4063472747802734</v>
+        <v>0.18572998046875</v>
       </c>
       <c r="D23" t="n">
-        <v>8.380000000000001</v>
+        <v>8.17</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4979565143585205</v>
+        <v>0.4326059818267822</v>
       </c>
       <c r="D24" t="n">
-        <v>8.242000000000001</v>
+        <v>58.093</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5328705310821533</v>
+        <v>0.7214400768280029</v>
       </c>
       <c r="D25" t="n">
-        <v>8.242000000000001</v>
+        <v>522.668</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_chrome_test_results.xlsx
+++ b/client/test_results/unfiltered_chrome_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5121479034423828</v>
+        <v>0.5269200801849365</v>
       </c>
       <c r="D2" t="n">
-        <v>67.27800000000001</v>
+        <v>96.02800000000001</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1740388870239258</v>
+        <v>0.453193187713623</v>
       </c>
       <c r="D3" t="n">
-        <v>38.991</v>
+        <v>102.163</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9380471706390381</v>
+        <v>1.548693180084229</v>
       </c>
       <c r="D4" t="n">
-        <v>56.173</v>
+        <v>162.083</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3974390029907227</v>
+        <v>1.436925888061523</v>
       </c>
       <c r="D5" t="n">
-        <v>73.245</v>
+        <v>179.155</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1695139408111572</v>
+        <v>0.443472146987915</v>
       </c>
       <c r="D6" t="n">
-        <v>6.017</v>
+        <v>94.07299999999999</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1692137718200684</v>
+        <v>0.4450340270996094</v>
       </c>
       <c r="D7" t="n">
-        <v>6.017</v>
+        <v>100.208</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5016591548919678</v>
+        <v>1.409916877746582</v>
       </c>
       <c r="D8" t="n">
-        <v>54.218</v>
+        <v>160.128</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4957399368286133</v>
+        <v>1.45865273475647</v>
       </c>
       <c r="D9" t="n">
-        <v>71.29000000000001</v>
+        <v>177.2</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1831440925598145</v>
+        <v>0.4551770687103271</v>
       </c>
       <c r="D10" t="n">
-        <v>7.972</v>
+        <v>96.02800000000001</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1768581867218018</v>
+        <v>0.4407663345336914</v>
       </c>
       <c r="D11" t="n">
-        <v>7.972</v>
+        <v>102.163</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4625730514526367</v>
+        <v>1.49764609336853</v>
       </c>
       <c r="D12" t="n">
-        <v>56.173</v>
+        <v>162.083</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>0.404789924621582</v>
+        <v>1.354943037033081</v>
       </c>
       <c r="D13" t="n">
-        <v>73.245</v>
+        <v>179.155</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1723949909210205</v>
+        <v>0.4471333026885986</v>
       </c>
       <c r="D14" t="n">
-        <v>64.398</v>
+        <v>93.148</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1738078594207764</v>
+        <v>0.4471309185028076</v>
       </c>
       <c r="D15" t="n">
-        <v>522.806</v>
+        <v>551.556</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4329590797424316</v>
+        <v>1.467842102050781</v>
       </c>
       <c r="D16" t="n">
-        <v>58.093</v>
+        <v>164.003</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5745940208435059</v>
+        <v>1.660407066345215</v>
       </c>
       <c r="D17" t="n">
-        <v>522.668</v>
+        <v>628.578</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1825730800628662</v>
+        <v>0.4754397869110107</v>
       </c>
       <c r="D18" t="n">
-        <v>6.215</v>
+        <v>91.193</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1899170875549316</v>
+        <v>0.4765670299530029</v>
       </c>
       <c r="D19" t="n">
-        <v>6.215</v>
+        <v>549.601</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4363090991973877</v>
+        <v>1.409177780151367</v>
       </c>
       <c r="D20" t="n">
-        <v>56.138</v>
+        <v>162.048</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5788819789886475</v>
+        <v>1.538228988647461</v>
       </c>
       <c r="D21" t="n">
-        <v>520.713</v>
+        <v>626.623</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1883602142333984</v>
+        <v>0.4494552612304688</v>
       </c>
       <c r="D22" t="n">
-        <v>8.17</v>
+        <v>93.148</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.18572998046875</v>
+        <v>0.5574548244476318</v>
       </c>
       <c r="D23" t="n">
-        <v>8.17</v>
+        <v>551.556</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4326059818267822</v>
+        <v>1.375063896179199</v>
       </c>
       <c r="D24" t="n">
-        <v>58.093</v>
+        <v>164.003</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7214400768280029</v>
+        <v>1.687475919723511</v>
       </c>
       <c r="D25" t="n">
-        <v>522.668</v>
+        <v>628.578</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_chrome_test_results.xlsx
+++ b/client/test_results/unfiltered_chrome_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5269200801849365</v>
+        <v>0.4377989768981934</v>
       </c>
       <c r="D2" t="n">
-        <v>96.02800000000001</v>
+        <v>128.842</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.453193187713623</v>
+        <v>0.4595251083374023</v>
       </c>
       <c r="D3" t="n">
-        <v>102.163</v>
+        <v>137.031</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.548693180084229</v>
+        <v>1.377326965332031</v>
       </c>
       <c r="D4" t="n">
-        <v>162.083</v>
+        <v>191.974</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.436925888061523</v>
+        <v>1.383519887924194</v>
       </c>
       <c r="D5" t="n">
-        <v>179.155</v>
+        <v>214.043</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.443472146987915</v>
+        <v>0.4436459541320801</v>
       </c>
       <c r="D6" t="n">
-        <v>94.07299999999999</v>
+        <v>125.391</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4450340270996094</v>
+        <v>0.444972038269043</v>
       </c>
       <c r="D7" t="n">
-        <v>100.208</v>
+        <v>133.58</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.409916877746582</v>
+        <v>1.352727890014648</v>
       </c>
       <c r="D8" t="n">
-        <v>160.128</v>
+        <v>188.523</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.45865273475647</v>
+        <v>1.290358066558838</v>
       </c>
       <c r="D9" t="n">
-        <v>177.2</v>
+        <v>210.592</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4551770687103271</v>
+        <v>0.4340438842773438</v>
       </c>
       <c r="D10" t="n">
-        <v>96.02800000000001</v>
+        <v>128.842</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4407663345336914</v>
+        <v>0.4672091007232666</v>
       </c>
       <c r="D11" t="n">
-        <v>102.163</v>
+        <v>137.031</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.49764609336853</v>
+        <v>1.366221904754639</v>
       </c>
       <c r="D12" t="n">
-        <v>162.083</v>
+        <v>191.974</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.354943037033081</v>
+        <v>1.33842396736145</v>
       </c>
       <c r="D13" t="n">
-        <v>179.155</v>
+        <v>214.043</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4471333026885986</v>
+        <v>0.4415979385375977</v>
       </c>
       <c r="D14" t="n">
-        <v>93.148</v>
+        <v>129.071</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4471309185028076</v>
+        <v>0.4443109035491943</v>
       </c>
       <c r="D15" t="n">
-        <v>551.556</v>
+        <v>1159.902</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.467842102050781</v>
+        <v>1.365219116210938</v>
       </c>
       <c r="D16" t="n">
-        <v>164.003</v>
+        <v>197.461</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.660407066345215</v>
+        <v>5.136322259902954</v>
       </c>
       <c r="D17" t="n">
-        <v>628.578</v>
+        <v>1236.944</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4754397869110107</v>
+        <v>0.5585918426513672</v>
       </c>
       <c r="D18" t="n">
-        <v>91.193</v>
+        <v>125.62</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4765670299530029</v>
+        <v>0.4635188579559326</v>
       </c>
       <c r="D19" t="n">
-        <v>549.601</v>
+        <v>1156.451</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.409177780151367</v>
+        <v>1.265975952148438</v>
       </c>
       <c r="D20" t="n">
-        <v>162.048</v>
+        <v>194.01</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.538228988647461</v>
+        <v>1.668434143066406</v>
       </c>
       <c r="D21" t="n">
-        <v>626.623</v>
+        <v>1233.493</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4494552612304688</v>
+        <v>0.4334719181060791</v>
       </c>
       <c r="D22" t="n">
-        <v>93.148</v>
+        <v>129.071</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5574548244476318</v>
+        <v>0.4489898681640625</v>
       </c>
       <c r="D23" t="n">
-        <v>551.556</v>
+        <v>1159.902</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.375063896179199</v>
+        <v>1.206902027130127</v>
       </c>
       <c r="D24" t="n">
-        <v>164.003</v>
+        <v>197.461</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.687475919723511</v>
+        <v>1.522853136062622</v>
       </c>
       <c r="D25" t="n">
-        <v>628.578</v>
+        <v>1236.944</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_chrome_test_results.xlsx
+++ b/client/test_results/unfiltered_chrome_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5269200801849365</v>
+        <v>0.4351010322570801</v>
       </c>
       <c r="D2" t="n">
-        <v>96.02800000000001</v>
+        <v>97.524</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.453193187713623</v>
+        <v>0.7518012523651123</v>
       </c>
       <c r="D3" t="n">
-        <v>102.163</v>
+        <v>103.659</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.548693180084229</v>
+        <v>1.41349983215332</v>
       </c>
       <c r="D4" t="n">
-        <v>162.083</v>
+        <v>163.579</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.436925888061523</v>
+        <v>2.327406883239746</v>
       </c>
       <c r="D5" t="n">
-        <v>179.155</v>
+        <v>180.651</v>
       </c>
     </row>
     <row r="6">
@@ -529,7 +529,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.443472146987915</v>
+        <v>0.4387009143829346</v>
       </c>
       <c r="D6" t="n">
         <v>94.07299999999999</v>
@@ -545,7 +545,7 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4450340270996094</v>
+        <v>0.4506349563598633</v>
       </c>
       <c r="D7" t="n">
         <v>100.208</v>
@@ -561,7 +561,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.409916877746582</v>
+        <v>1.415625095367432</v>
       </c>
       <c r="D8" t="n">
         <v>160.128</v>
@@ -577,7 +577,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.45865273475647</v>
+        <v>1.463449001312256</v>
       </c>
       <c r="D9" t="n">
         <v>177.2</v>
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4551770687103271</v>
+        <v>0.4655051231384277</v>
       </c>
       <c r="D10" t="n">
-        <v>96.02800000000001</v>
+        <v>97.524</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4407663345336914</v>
+        <v>0.4500830173492432</v>
       </c>
       <c r="D11" t="n">
-        <v>102.163</v>
+        <v>103.659</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.49764609336853</v>
+        <v>1.77634596824646</v>
       </c>
       <c r="D12" t="n">
-        <v>162.083</v>
+        <v>163.579</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.354943037033081</v>
+        <v>1.485738039016724</v>
       </c>
       <c r="D13" t="n">
-        <v>179.155</v>
+        <v>180.651</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4471333026885986</v>
+        <v>0.4464519023895264</v>
       </c>
       <c r="D14" t="n">
-        <v>93.148</v>
+        <v>94.64400000000001</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4471309185028076</v>
+        <v>0.445584774017334</v>
       </c>
       <c r="D15" t="n">
-        <v>551.556</v>
+        <v>553.052</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.467842102050781</v>
+        <v>1.38127589225769</v>
       </c>
       <c r="D16" t="n">
-        <v>164.003</v>
+        <v>165.499</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.660407066345215</v>
+        <v>1.567848920822144</v>
       </c>
       <c r="D17" t="n">
-        <v>628.578</v>
+        <v>630.074</v>
       </c>
     </row>
     <row r="18">
@@ -721,7 +721,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4754397869110107</v>
+        <v>0.4692039489746094</v>
       </c>
       <c r="D18" t="n">
         <v>91.193</v>
@@ -737,7 +737,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4765670299530029</v>
+        <v>0.4422719478607178</v>
       </c>
       <c r="D19" t="n">
         <v>549.601</v>
@@ -753,7 +753,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.409177780151367</v>
+        <v>1.754142999649048</v>
       </c>
       <c r="D20" t="n">
         <v>162.048</v>
@@ -769,7 +769,7 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.538228988647461</v>
+        <v>1.449809789657593</v>
       </c>
       <c r="D21" t="n">
         <v>626.623</v>
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4494552612304688</v>
+        <v>0.4350500106811523</v>
       </c>
       <c r="D22" t="n">
-        <v>93.148</v>
+        <v>94.64400000000001</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5574548244476318</v>
+        <v>0.448206901550293</v>
       </c>
       <c r="D23" t="n">
-        <v>551.556</v>
+        <v>553.052</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.375063896179199</v>
+        <v>1.436661005020142</v>
       </c>
       <c r="D24" t="n">
-        <v>164.003</v>
+        <v>165.499</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.687475919723511</v>
+        <v>1.486495971679688</v>
       </c>
       <c r="D25" t="n">
-        <v>628.578</v>
+        <v>630.074</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_chrome_test_results.xlsx
+++ b/client/test_results/unfiltered_chrome_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5269200801849365</v>
+        <v>0.4407429695129395</v>
       </c>
       <c r="D2" t="n">
-        <v>96.02800000000001</v>
+        <v>94.122</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.453193187713623</v>
+        <v>0.4400978088378906</v>
       </c>
       <c r="D3" t="n">
-        <v>102.163</v>
+        <v>114.48</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.548693180084229</v>
+        <v>1.391392946243286</v>
       </c>
       <c r="D4" t="n">
-        <v>162.083</v>
+        <v>160.726</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.436925888061523</v>
+        <v>1.337491035461426</v>
       </c>
       <c r="D5" t="n">
-        <v>179.155</v>
+        <v>191.681</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.443472146987915</v>
+        <v>0.4636881351470947</v>
       </c>
       <c r="D6" t="n">
-        <v>94.07299999999999</v>
+        <v>92.167</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4450340270996094</v>
+        <v>0.4445312023162842</v>
       </c>
       <c r="D7" t="n">
-        <v>100.208</v>
+        <v>112.525</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.409916877746582</v>
+        <v>1.221081018447876</v>
       </c>
       <c r="D8" t="n">
-        <v>160.128</v>
+        <v>158.771</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.45865273475647</v>
+        <v>1.291674137115479</v>
       </c>
       <c r="D9" t="n">
-        <v>177.2</v>
+        <v>189.726</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4551770687103271</v>
+        <v>0.4452009201049805</v>
       </c>
       <c r="D10" t="n">
-        <v>96.02800000000001</v>
+        <v>94.122</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4407663345336914</v>
+        <v>0.4361660480499268</v>
       </c>
       <c r="D11" t="n">
-        <v>102.163</v>
+        <v>114.48</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.49764609336853</v>
+        <v>1.34572172164917</v>
       </c>
       <c r="D12" t="n">
-        <v>162.083</v>
+        <v>160.726</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.354943037033081</v>
+        <v>1.344704151153564</v>
       </c>
       <c r="D13" t="n">
-        <v>179.155</v>
+        <v>191.681</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4471333026885986</v>
+        <v>0.4464871883392334</v>
       </c>
       <c r="D14" t="n">
-        <v>93.148</v>
+        <v>91.369</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4471309185028076</v>
+        <v>0.4534280300140381</v>
       </c>
       <c r="D15" t="n">
-        <v>551.556</v>
+        <v>499.941</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.467842102050781</v>
+        <v>1.318290948867798</v>
       </c>
       <c r="D16" t="n">
-        <v>164.003</v>
+        <v>162.54</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.660407066345215</v>
+        <v>1.329418897628784</v>
       </c>
       <c r="D17" t="n">
-        <v>628.578</v>
+        <v>576.9829999999999</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4754397869110107</v>
+        <v>0.4355878829956055</v>
       </c>
       <c r="D18" t="n">
-        <v>91.193</v>
+        <v>89.414</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4765670299530029</v>
+        <v>0.4429869651794434</v>
       </c>
       <c r="D19" t="n">
-        <v>549.601</v>
+        <v>497.986</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.409177780151367</v>
+        <v>1.311568260192871</v>
       </c>
       <c r="D20" t="n">
-        <v>162.048</v>
+        <v>160.585</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.538228988647461</v>
+        <v>1.402527093887329</v>
       </c>
       <c r="D21" t="n">
-        <v>626.623</v>
+        <v>575.028</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4494552612304688</v>
+        <v>0.435265064239502</v>
       </c>
       <c r="D22" t="n">
-        <v>93.148</v>
+        <v>91.369</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5574548244476318</v>
+        <v>0.4546523094177246</v>
       </c>
       <c r="D23" t="n">
-        <v>551.556</v>
+        <v>499.941</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.375063896179199</v>
+        <v>1.372555017471313</v>
       </c>
       <c r="D24" t="n">
-        <v>164.003</v>
+        <v>162.54</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.687475919723511</v>
+        <v>1.365502834320068</v>
       </c>
       <c r="D25" t="n">
-        <v>628.578</v>
+        <v>576.9829999999999</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_chrome_test_results.xlsx
+++ b/client/test_results/unfiltered_chrome_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4351010322570801</v>
+        <v>0.4457612037658691</v>
       </c>
       <c r="D2" t="n">
-        <v>97.524</v>
+        <v>95.61799999999999</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7518012523651123</v>
+        <v>0.4492430686950684</v>
       </c>
       <c r="D3" t="n">
-        <v>103.659</v>
+        <v>115.976</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.41349983215332</v>
+        <v>1.094192266464233</v>
       </c>
       <c r="D4" t="n">
-        <v>163.579</v>
+        <v>162.222</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>2.327406883239746</v>
+        <v>1.420133829116821</v>
       </c>
       <c r="D5" t="n">
-        <v>180.651</v>
+        <v>193.177</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4387009143829346</v>
+        <v>0.4437930583953857</v>
       </c>
       <c r="D6" t="n">
-        <v>94.07299999999999</v>
+        <v>92.167</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4506349563598633</v>
+        <v>0.4748539924621582</v>
       </c>
       <c r="D7" t="n">
-        <v>100.208</v>
+        <v>112.525</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.415625095367432</v>
+        <v>1.452162027359009</v>
       </c>
       <c r="D8" t="n">
-        <v>160.128</v>
+        <v>158.771</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.463449001312256</v>
+        <v>1.350816965103149</v>
       </c>
       <c r="D9" t="n">
-        <v>177.2</v>
+        <v>189.726</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4655051231384277</v>
+        <v>0.4537320137023926</v>
       </c>
       <c r="D10" t="n">
-        <v>97.524</v>
+        <v>95.61799999999999</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4500830173492432</v>
+        <v>0.4500889778137207</v>
       </c>
       <c r="D11" t="n">
-        <v>103.659</v>
+        <v>115.976</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.77634596824646</v>
+        <v>1.279157161712646</v>
       </c>
       <c r="D12" t="n">
-        <v>163.579</v>
+        <v>162.222</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.485738039016724</v>
+        <v>1.336320877075195</v>
       </c>
       <c r="D13" t="n">
-        <v>180.651</v>
+        <v>193.177</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4464519023895264</v>
+        <v>0.4401657581329346</v>
       </c>
       <c r="D14" t="n">
-        <v>94.64400000000001</v>
+        <v>92.86499999999999</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.445584774017334</v>
+        <v>0.4640851020812988</v>
       </c>
       <c r="D15" t="n">
-        <v>553.052</v>
+        <v>501.437</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.38127589225769</v>
+        <v>1.346732139587402</v>
       </c>
       <c r="D16" t="n">
-        <v>165.499</v>
+        <v>164.036</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.567848920822144</v>
+        <v>1.311748027801514</v>
       </c>
       <c r="D17" t="n">
-        <v>630.074</v>
+        <v>578.479</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4692039489746094</v>
+        <v>0.4528720378875732</v>
       </c>
       <c r="D18" t="n">
-        <v>91.193</v>
+        <v>89.414</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4422719478607178</v>
+        <v>0.4626967906951904</v>
       </c>
       <c r="D19" t="n">
-        <v>549.601</v>
+        <v>497.986</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.754142999649048</v>
+        <v>1.356055021286011</v>
       </c>
       <c r="D20" t="n">
-        <v>162.048</v>
+        <v>160.585</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.449809789657593</v>
+        <v>1.37232494354248</v>
       </c>
       <c r="D21" t="n">
-        <v>626.623</v>
+        <v>575.028</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4350500106811523</v>
+        <v>0.4367609024047852</v>
       </c>
       <c r="D22" t="n">
-        <v>94.64400000000001</v>
+        <v>92.86499999999999</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.448206901550293</v>
+        <v>0.4633760452270508</v>
       </c>
       <c r="D23" t="n">
-        <v>553.052</v>
+        <v>501.437</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.436661005020142</v>
+        <v>1.208842039108276</v>
       </c>
       <c r="D24" t="n">
-        <v>165.499</v>
+        <v>164.036</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.486495971679688</v>
+        <v>1.355772018432617</v>
       </c>
       <c r="D25" t="n">
-        <v>630.074</v>
+        <v>578.479</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_chrome_test_results.xlsx
+++ b/client/test_results/unfiltered_chrome_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4377989768981934</v>
+        <v>0.4447422027587891</v>
       </c>
       <c r="D2" t="n">
-        <v>128.842</v>
+        <v>124.462</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4595251083374023</v>
+        <v>0.4534471035003662</v>
       </c>
       <c r="D3" t="n">
-        <v>137.031</v>
+        <v>164.363</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.377326965332031</v>
+        <v>1.269827127456665</v>
       </c>
       <c r="D4" t="n">
-        <v>191.974</v>
+        <v>189.106</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.383519887924194</v>
+        <v>1.352491855621338</v>
       </c>
       <c r="D5" t="n">
-        <v>214.043</v>
+        <v>241.564</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4436459541320801</v>
+        <v>0.4434051513671875</v>
       </c>
       <c r="D6" t="n">
-        <v>125.391</v>
+        <v>121.011</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.444972038269043</v>
+        <v>0.4724211692810059</v>
       </c>
       <c r="D7" t="n">
-        <v>133.58</v>
+        <v>160.912</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.352727890014648</v>
+        <v>1.28935980796814</v>
       </c>
       <c r="D8" t="n">
-        <v>188.523</v>
+        <v>185.655</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.290358066558838</v>
+        <v>1.358805894851685</v>
       </c>
       <c r="D9" t="n">
-        <v>210.592</v>
+        <v>238.113</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4340438842773438</v>
+        <v>0.441784143447876</v>
       </c>
       <c r="D10" t="n">
-        <v>128.842</v>
+        <v>124.462</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4672091007232666</v>
+        <v>0.4747200012207031</v>
       </c>
       <c r="D11" t="n">
-        <v>137.031</v>
+        <v>164.363</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.366221904754639</v>
+        <v>1.341850996017456</v>
       </c>
       <c r="D12" t="n">
-        <v>191.974</v>
+        <v>189.106</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.33842396736145</v>
+        <v>1.553781986236572</v>
       </c>
       <c r="D13" t="n">
-        <v>214.043</v>
+        <v>241.564</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4415979385375977</v>
+        <v>0.4417808055877686</v>
       </c>
       <c r="D14" t="n">
-        <v>129.071</v>
+        <v>125.106</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4443109035491943</v>
+        <v>0.4422171115875244</v>
       </c>
       <c r="D15" t="n">
-        <v>1159.902</v>
+        <v>943.059</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.365219116210938</v>
+        <v>1.177206993103027</v>
       </c>
       <c r="D16" t="n">
-        <v>197.461</v>
+        <v>174.565</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>5.136322259902954</v>
+        <v>1.402122020721436</v>
       </c>
       <c r="D17" t="n">
-        <v>1236.944</v>
+        <v>672.716</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5585918426513672</v>
+        <v>0.4394791126251221</v>
       </c>
       <c r="D18" t="n">
-        <v>125.62</v>
+        <v>121.655</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4635188579559326</v>
+        <v>0.4361410140991211</v>
       </c>
       <c r="D19" t="n">
-        <v>1156.451</v>
+        <v>939.6079999999999</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.265975952148438</v>
+        <v>1.39478611946106</v>
       </c>
       <c r="D20" t="n">
-        <v>194.01</v>
+        <v>171.114</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.668434143066406</v>
+        <v>1.41057014465332</v>
       </c>
       <c r="D21" t="n">
-        <v>1233.493</v>
+        <v>669.265</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4334719181060791</v>
+        <v>0.4703962802886963</v>
       </c>
       <c r="D22" t="n">
-        <v>129.071</v>
+        <v>125.106</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4489898681640625</v>
+        <v>0.4541821479797363</v>
       </c>
       <c r="D23" t="n">
-        <v>1159.902</v>
+        <v>943.059</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.206902027130127</v>
+        <v>1.359807968139648</v>
       </c>
       <c r="D24" t="n">
-        <v>197.461</v>
+        <v>174.565</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.522853136062622</v>
+        <v>1.343481063842773</v>
       </c>
       <c r="D25" t="n">
-        <v>1236.944</v>
+        <v>672.716</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_chrome_test_results.xlsx
+++ b/client/test_results/unfiltered_chrome_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5269200801849365</v>
+        <v>0.4514288902282715</v>
       </c>
       <c r="D2" t="n">
-        <v>96.02800000000001</v>
+        <v>94.122</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.453193187713623</v>
+        <v>0.4392168521881104</v>
       </c>
       <c r="D3" t="n">
-        <v>102.163</v>
+        <v>114.48</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.548693180084229</v>
+        <v>1.341026067733765</v>
       </c>
       <c r="D4" t="n">
-        <v>162.083</v>
+        <v>187.61</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.436925888061523</v>
+        <v>1.366880893707275</v>
       </c>
       <c r="D5" t="n">
-        <v>179.155</v>
+        <v>240.068</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.443472146987915</v>
+        <v>0.4362049102783203</v>
       </c>
       <c r="D6" t="n">
-        <v>94.07299999999999</v>
+        <v>92.167</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4450340270996094</v>
+        <v>0.433225154876709</v>
       </c>
       <c r="D7" t="n">
-        <v>100.208</v>
+        <v>112.525</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.409916877746582</v>
+        <v>1.318073987960815</v>
       </c>
       <c r="D8" t="n">
-        <v>160.128</v>
+        <v>185.655</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.45865273475647</v>
+        <v>1.325295925140381</v>
       </c>
       <c r="D9" t="n">
-        <v>177.2</v>
+        <v>238.113</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4551770687103271</v>
+        <v>0.4519486427307129</v>
       </c>
       <c r="D10" t="n">
-        <v>96.02800000000001</v>
+        <v>94.122</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4407663345336914</v>
+        <v>0.4407639503479004</v>
       </c>
       <c r="D11" t="n">
-        <v>102.163</v>
+        <v>114.48</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.49764609336853</v>
+        <v>1.329020023345947</v>
       </c>
       <c r="D12" t="n">
-        <v>162.083</v>
+        <v>187.61</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.354943037033081</v>
+        <v>1.351633071899414</v>
       </c>
       <c r="D13" t="n">
-        <v>179.155</v>
+        <v>240.068</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4471333026885986</v>
+        <v>0.4585950374603271</v>
       </c>
       <c r="D14" t="n">
-        <v>93.148</v>
+        <v>91.336</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4471309185028076</v>
+        <v>0.4664790630340576</v>
       </c>
       <c r="D15" t="n">
-        <v>551.556</v>
+        <v>515.522</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.467842102050781</v>
+        <v>1.346624135971069</v>
       </c>
       <c r="D16" t="n">
-        <v>164.003</v>
+        <v>162.565</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.660407066345215</v>
+        <v>1.316881895065308</v>
       </c>
       <c r="D17" t="n">
-        <v>628.578</v>
+        <v>592.564</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4754397869110107</v>
+        <v>0.4380619525909424</v>
       </c>
       <c r="D18" t="n">
-        <v>91.193</v>
+        <v>89.381</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4765670299530029</v>
+        <v>0.4437382221221924</v>
       </c>
       <c r="D19" t="n">
-        <v>549.601</v>
+        <v>513.567</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.409177780151367</v>
+        <v>1.322663068771362</v>
       </c>
       <c r="D20" t="n">
-        <v>162.048</v>
+        <v>160.61</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.538228988647461</v>
+        <v>1.288445949554443</v>
       </c>
       <c r="D21" t="n">
-        <v>626.623</v>
+        <v>590.609</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4494552612304688</v>
+        <v>0.4464781284332275</v>
       </c>
       <c r="D22" t="n">
-        <v>93.148</v>
+        <v>91.336</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5574548244476318</v>
+        <v>0.4492359161376953</v>
       </c>
       <c r="D23" t="n">
-        <v>551.556</v>
+        <v>515.522</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.375063896179199</v>
+        <v>1.346878051757812</v>
       </c>
       <c r="D24" t="n">
-        <v>164.003</v>
+        <v>162.565</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.687475919723511</v>
+        <v>1.327112913131714</v>
       </c>
       <c r="D25" t="n">
-        <v>628.578</v>
+        <v>592.564</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_chrome_test_results.xlsx
+++ b/client/test_results/unfiltered_chrome_test_results.xlsx
@@ -465,10 +465,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5269200801849365</v>
+        <v>0.4463660717010498</v>
       </c>
       <c r="D2" t="n">
-        <v>96.02800000000001</v>
+        <v>122.966</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +481,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.453193187713623</v>
+        <v>0.4516658782958984</v>
       </c>
       <c r="D3" t="n">
-        <v>102.163</v>
+        <v>162.867</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.548693180084229</v>
+        <v>1.376517772674561</v>
       </c>
       <c r="D4" t="n">
-        <v>162.083</v>
+        <v>187.61</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +513,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.436925888061523</v>
+        <v>1.395679950714111</v>
       </c>
       <c r="D5" t="n">
-        <v>179.155</v>
+        <v>240.068</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +529,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.443472146987915</v>
+        <v>0.4376718997955322</v>
       </c>
       <c r="D6" t="n">
-        <v>94.07299999999999</v>
+        <v>121.011</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +545,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4450340270996094</v>
+        <v>0.4731740951538086</v>
       </c>
       <c r="D7" t="n">
-        <v>100.208</v>
+        <v>160.912</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +561,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.409916877746582</v>
+        <v>1.412964105606079</v>
       </c>
       <c r="D8" t="n">
-        <v>160.128</v>
+        <v>185.655</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +577,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.45865273475647</v>
+        <v>1.394715070724487</v>
       </c>
       <c r="D9" t="n">
-        <v>177.2</v>
+        <v>238.113</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +593,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4551770687103271</v>
+        <v>0.4338250160217285</v>
       </c>
       <c r="D10" t="n">
-        <v>96.02800000000001</v>
+        <v>122.966</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +609,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4407663345336914</v>
+        <v>0.5663430690765381</v>
       </c>
       <c r="D11" t="n">
-        <v>102.163</v>
+        <v>162.867</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +625,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.49764609336853</v>
+        <v>1.373169898986816</v>
       </c>
       <c r="D12" t="n">
-        <v>162.083</v>
+        <v>187.61</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +641,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.354943037033081</v>
+        <v>1.414558887481689</v>
       </c>
       <c r="D13" t="n">
-        <v>179.155</v>
+        <v>240.068</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +657,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4471333026885986</v>
+        <v>0.4733691215515137</v>
       </c>
       <c r="D14" t="n">
-        <v>93.148</v>
+        <v>123.7</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +673,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4471309185028076</v>
+        <v>0.4638233184814453</v>
       </c>
       <c r="D15" t="n">
-        <v>551.556</v>
+        <v>869.9299999999999</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +689,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.467842102050781</v>
+        <v>1.421462059020996</v>
       </c>
       <c r="D16" t="n">
-        <v>164.003</v>
+        <v>193.448</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +705,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.660407066345215</v>
+        <v>1.445667028427124</v>
       </c>
       <c r="D17" t="n">
-        <v>628.578</v>
+        <v>946.972</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +721,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4754397869110107</v>
+        <v>0.4275519847869873</v>
       </c>
       <c r="D18" t="n">
-        <v>91.193</v>
+        <v>121.745</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +737,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4765670299530029</v>
+        <v>0.4381222724914551</v>
       </c>
       <c r="D19" t="n">
-        <v>549.601</v>
+        <v>867.975</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +753,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.409177780151367</v>
+        <v>1.405090093612671</v>
       </c>
       <c r="D20" t="n">
-        <v>162.048</v>
+        <v>191.493</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +769,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.538228988647461</v>
+        <v>1.439934253692627</v>
       </c>
       <c r="D21" t="n">
-        <v>626.623</v>
+        <v>945.0170000000001</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +785,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4494552612304688</v>
+        <v>0.4556879997253418</v>
       </c>
       <c r="D22" t="n">
-        <v>93.148</v>
+        <v>123.7</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +801,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5574548244476318</v>
+        <v>0.4513359069824219</v>
       </c>
       <c r="D23" t="n">
-        <v>551.556</v>
+        <v>869.9299999999999</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +817,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.375063896179199</v>
+        <v>1.362513780593872</v>
       </c>
       <c r="D24" t="n">
-        <v>164.003</v>
+        <v>193.448</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +833,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.687475919723511</v>
+        <v>1.554322957992554</v>
       </c>
       <c r="D25" t="n">
-        <v>628.578</v>
+        <v>946.972</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_chrome_test_results.xlsx
+++ b/client/test_results/unfiltered_chrome_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4407429695129395</v>
+        <v>0.4117500782012939</v>
       </c>
       <c r="D2" t="n">
-        <v>94.122</v>
+        <v>125.138</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4400978088378906</v>
+        <v>0.4179348945617676</v>
       </c>
       <c r="D3" t="n">
-        <v>114.48</v>
+        <v>165.039</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.391392946243286</v>
+        <v>1.307939767837524</v>
       </c>
       <c r="D4" t="n">
-        <v>160.726</v>
+        <v>189.782</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.337491035461426</v>
+        <v>1.453275203704834</v>
       </c>
       <c r="D5" t="n">
-        <v>191.681</v>
+        <v>242.24</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4636881351470947</v>
+        <v>0.4478819370269775</v>
       </c>
       <c r="D6" t="n">
-        <v>92.167</v>
+        <v>123.183</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4445312023162842</v>
+        <v>0.4223978519439697</v>
       </c>
       <c r="D7" t="n">
-        <v>112.525</v>
+        <v>163.084</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.221081018447876</v>
+        <v>1.215502977371216</v>
       </c>
       <c r="D8" t="n">
-        <v>158.771</v>
+        <v>187.827</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.291674137115479</v>
+        <v>1.290920972824097</v>
       </c>
       <c r="D9" t="n">
-        <v>189.726</v>
+        <v>240.285</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4452009201049805</v>
+        <v>0.4319658279418945</v>
       </c>
       <c r="D10" t="n">
-        <v>94.122</v>
+        <v>125.138</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4361660480499268</v>
+        <v>0.4214949607849121</v>
       </c>
       <c r="D11" t="n">
-        <v>114.48</v>
+        <v>165.039</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.34572172164917</v>
+        <v>1.279378175735474</v>
       </c>
       <c r="D12" t="n">
-        <v>160.726</v>
+        <v>189.782</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.344704151153564</v>
+        <v>1.298293113708496</v>
       </c>
       <c r="D13" t="n">
-        <v>191.681</v>
+        <v>242.24</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4464871883392334</v>
+        <v>0.4190678596496582</v>
       </c>
       <c r="D14" t="n">
-        <v>91.369</v>
+        <v>125.872</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4534280300140381</v>
+        <v>0.5260720252990723</v>
       </c>
       <c r="D15" t="n">
-        <v>499.941</v>
+        <v>872.102</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.318290948867798</v>
+        <v>1.365631103515625</v>
       </c>
       <c r="D16" t="n">
-        <v>162.54</v>
+        <v>195.62</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.329418897628784</v>
+        <v>1.266115665435791</v>
       </c>
       <c r="D17" t="n">
-        <v>576.9829999999999</v>
+        <v>949.144</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4355878829956055</v>
+        <v>0.4403707981109619</v>
       </c>
       <c r="D18" t="n">
-        <v>89.414</v>
+        <v>123.917</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4429869651794434</v>
+        <v>0.4339580535888672</v>
       </c>
       <c r="D19" t="n">
-        <v>497.986</v>
+        <v>870.147</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.311568260192871</v>
+        <v>1.271799802780151</v>
       </c>
       <c r="D20" t="n">
-        <v>160.585</v>
+        <v>193.665</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.402527093887329</v>
+        <v>1.360035181045532</v>
       </c>
       <c r="D21" t="n">
-        <v>575.028</v>
+        <v>947.189</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.435265064239502</v>
+        <v>0.4012470245361328</v>
       </c>
       <c r="D22" t="n">
-        <v>91.369</v>
+        <v>125.872</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4546523094177246</v>
+        <v>0.4221649169921875</v>
       </c>
       <c r="D23" t="n">
-        <v>499.941</v>
+        <v>872.102</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.372555017471313</v>
+        <v>1.339321136474609</v>
       </c>
       <c r="D24" t="n">
-        <v>162.54</v>
+        <v>195.62</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.365502834320068</v>
+        <v>1.284933805465698</v>
       </c>
       <c r="D25" t="n">
-        <v>576.9829999999999</v>
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.415071964263916</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4417459964752197</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.294878959655762</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.269301176071167</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4004449844360352</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4079928398132324</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.290025949478149</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.281501770019531</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.412205696105957</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4303312301635742</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.266782999038696</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.310979127883911</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5513579845428467</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4195847511291504</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.340390920639038</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.12136697769165</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4259281158447266</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4138240814208984</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.283750057220459</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.311750888824463</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4259629249572754</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4062929153442383</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.406457901000977</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.320794105529785</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4029369354248047</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4127418994903564</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.269936084747314</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.307082891464233</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4309618473052979</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4159951210021973</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.264130830764771</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.243427753448486</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4300200939178467</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.41963791847229</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.330866813659668</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.328175067901611</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4282691478729248</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4403548240661621</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.238193988800049</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.407756090164185</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4659900665283203</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3983550071716309</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.296170949935913</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.405971765518188</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4406700134277344</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4230668544769287</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.21809196472168</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.426125049591064</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4315879344940186</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4205408096313477</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.314913034439087</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.354984283447266</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4092388153076172</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4185793399810791</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.287710905075073</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.319250106811523</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4292259216308594</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4135532379150391</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.300777196884155</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.651467084884644</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4316940307617188</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4298310279846191</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.226620197296143</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.254501104354858</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5315158367156982</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4401500225067139</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.276478052139282</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.261334896087646</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4389350414276123</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4169881343841553</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.247254133224487</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.419989109039307</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4243457317352295</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4077191352844238</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.316898822784424</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.322936058044434</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4197089672088623</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4315619468688965</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.310781955718994</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.256369113922119</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4441459178924561</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.413060188293457</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.271224021911621</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.296440124511719</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4258298873901367</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4137341976165771</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.30249285697937</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.050312042236328</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4074397087097168</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4024088382720947</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.351251125335693</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.326786994934082</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5731930732727051</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4294672012329102</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.165384769439697</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.422038078308105</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4291691780090332</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4390630722045898</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.288537979125977</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.275789022445679</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4171559810638428</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4332847595214844</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.34508490562439</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.289674043655396</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.412484884262085</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4337248802185059</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.325938940048218</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.412055969238281</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5247719287872314</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4165010452270508</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.292253017425537</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.367924928665161</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4078881740570068</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4280498027801514</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.365586280822754</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.350138187408447</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5172069072723389</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4324779510498047</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.297645807266235</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.370713233947754</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4390499591827393</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4050741195678711</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.280807971954346</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.308569669723511</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.409168004989624</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4002611637115479</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.281618118286133</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.213498115539551</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4039280414581299</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4151089191436768</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.333170890808105</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.296083927154541</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4289112091064453</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4294209480285645</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.223957061767578</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.303982257843018</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.410233736038208</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4093008041381836</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.219687938690186</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.310675144195557</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3978123664855957</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4342498779296875</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.258166074752808</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.312915802001953</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4201970100402832</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.428175687789917</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.269767045974731</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.346947908401489</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4036462306976318</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4187180995941162</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.290359020233154</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.239004850387573</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4323811531066895</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4271719455718994</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.449867010116577</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.206771850585938</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4388449192047119</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4162750244140625</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.331089973449707</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.212060213088989</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4326269626617432</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4465820789337158</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.078880071640015</v>
+      </c>
+      <c r="D20" t="n">
+        <v>116.505</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.250159740447998</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4026391506195068</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4182226657867432</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.26949405670166</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.240515947341919</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4184236526489258</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4166991710662842</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.268958806991577</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.217216014862061</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4228231906890869</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4118912220001221</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.37773609161377</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.348679065704346</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4280738830566406</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4375619888305664</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.329545021057129</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.323448181152344</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4253799915313721</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4165000915527344</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.361194849014282</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.313262224197388</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4108438491821289</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4902238845825195</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.18738317489624</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.320446014404297</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4302051067352295</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4180920124053955</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.303102970123291</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.257939100265503</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4026570320129395</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.430185079574585</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.245215892791748</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.30101203918457</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4266390800476074</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4119946956634521</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.226218223571777</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.417942047119141</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4079821109771729</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.431760311126709</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.278487920761108</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.271088123321533</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4278779029846191</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4391732215881348</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.309025049209595</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.267611742019653</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4500699043273926</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4576098918914795</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.218625068664551</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.265795946121216</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4225630760192871</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4121253490447998</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.298558950424194</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.244198083877563</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_chrome_test_results.xlsx
+++ b/client/test_results/unfiltered_chrome_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4514288902282715</v>
+        <v>0.4633231163024902</v>
       </c>
       <c r="D2" t="n">
-        <v>94.122</v>
+        <v>125.138</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4392168521881104</v>
+        <v>0.4203987121582031</v>
       </c>
       <c r="D3" t="n">
-        <v>114.48</v>
+        <v>165.039</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.341026067733765</v>
+        <v>1.221764087677002</v>
       </c>
       <c r="D4" t="n">
-        <v>187.61</v>
+        <v>189.782</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.366880893707275</v>
+        <v>1.300970792770386</v>
       </c>
       <c r="D5" t="n">
-        <v>240.068</v>
+        <v>242.24</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4362049102783203</v>
+        <v>0.433258056640625</v>
       </c>
       <c r="D6" t="n">
-        <v>92.167</v>
+        <v>123.183</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.433225154876709</v>
+        <v>0.4549319744110107</v>
       </c>
       <c r="D7" t="n">
-        <v>112.525</v>
+        <v>163.084</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.318073987960815</v>
+        <v>1.350028038024902</v>
       </c>
       <c r="D8" t="n">
-        <v>185.655</v>
+        <v>187.827</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.325295925140381</v>
+        <v>1.150414943695068</v>
       </c>
       <c r="D9" t="n">
-        <v>238.113</v>
+        <v>240.285</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4519486427307129</v>
+        <v>0.4399750232696533</v>
       </c>
       <c r="D10" t="n">
-        <v>94.122</v>
+        <v>125.138</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4407639503479004</v>
+        <v>0.455927848815918</v>
       </c>
       <c r="D11" t="n">
-        <v>114.48</v>
+        <v>165.039</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.329020023345947</v>
+        <v>1.317913055419922</v>
       </c>
       <c r="D12" t="n">
-        <v>187.61</v>
+        <v>189.782</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.351633071899414</v>
+        <v>1.331198930740356</v>
       </c>
       <c r="D13" t="n">
-        <v>240.068</v>
+        <v>242.24</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4585950374603271</v>
+        <v>0.4481332302093506</v>
       </c>
       <c r="D14" t="n">
-        <v>91.336</v>
+        <v>125.872</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4664790630340576</v>
+        <v>0.442209005355835</v>
       </c>
       <c r="D15" t="n">
-        <v>515.522</v>
+        <v>872.102</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.346624135971069</v>
+        <v>1.367228031158447</v>
       </c>
       <c r="D16" t="n">
-        <v>162.565</v>
+        <v>195.62</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.316881895065308</v>
+        <v>1.345281839370728</v>
       </c>
       <c r="D17" t="n">
-        <v>592.564</v>
+        <v>949.144</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4380619525909424</v>
+        <v>0.4255490303039551</v>
       </c>
       <c r="D18" t="n">
-        <v>89.381</v>
+        <v>123.917</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4437382221221924</v>
+        <v>0.4412481784820557</v>
       </c>
       <c r="D19" t="n">
-        <v>513.567</v>
+        <v>870.147</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.322663068771362</v>
+        <v>1.243354082107544</v>
       </c>
       <c r="D20" t="n">
-        <v>160.61</v>
+        <v>193.665</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.288445949554443</v>
+        <v>1.342966079711914</v>
       </c>
       <c r="D21" t="n">
-        <v>590.609</v>
+        <v>947.189</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4464781284332275</v>
+        <v>0.4318010807037354</v>
       </c>
       <c r="D22" t="n">
-        <v>91.336</v>
+        <v>125.872</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4492359161376953</v>
+        <v>0.4266030788421631</v>
       </c>
       <c r="D23" t="n">
-        <v>515.522</v>
+        <v>872.102</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.346878051757812</v>
+        <v>1.452513694763184</v>
       </c>
       <c r="D24" t="n">
-        <v>162.565</v>
+        <v>195.62</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.327112913131714</v>
+        <v>1.417011022567749</v>
       </c>
       <c r="D25" t="n">
-        <v>592.564</v>
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.428009033203125</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4374241828918457</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.320388078689575</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.325240135192871</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5170509815216064</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4367480278015137</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.076202869415283</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.214572191238403</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4168782234191895</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.436622142791748</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.290760040283203</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.266845941543579</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4276890754699707</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.450225830078125</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.233431100845337</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.429123163223267</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4321107864379883</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4254140853881836</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.347548961639404</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.292286396026611</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4821310043334961</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4362730979919434</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.402483940124512</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.360166311264038</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.532257080078125</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4324302673339844</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.34174108505249</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.326030969619751</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4441838264465332</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4464156627655029</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.30009913444519</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.335432052612305</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4291322231292725</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4314730167388916</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.276188850402832</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.218039989471436</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5397670269012451</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4121761322021484</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.319351196289062</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.365796089172363</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4340159893035889</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4467020034790039</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.243121862411499</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.44587516784668</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4409449100494385</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4300942420959473</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.243246793746948</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.346404075622559</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4374251365661621</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4390561580657959</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.242986917495728</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.325007915496826</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4269781112670898</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4164721965789795</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.296361923217773</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.314402103424072</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4435548782348633</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.441558837890625</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.331006288528442</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.285760164260864</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4297029972076416</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5377228260040283</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.155935287475586</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.314589023590088</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.427987813949585</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4116101264953613</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.405841827392578</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.459662675857544</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4252932071685791</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4514350891113281</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.531592845916748</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.349689960479736</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.455449104309082</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.424004077911377</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.315565824508667</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.219021081924438</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4361498355865479</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4366369247436523</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.29536509513855</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.338325023651123</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4348001480102539</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4658839702606201</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.183084011077881</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.158339023590088</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5816521644592285</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4360268115997314</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.245451927185059</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.463679075241089</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4486160278320312</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4385690689086914</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.201029300689697</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.392369031906128</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.426365852355957</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4304590225219727</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.35219407081604</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.403182983398438</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4217140674591064</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5409538745880127</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.389573097229004</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.263028144836426</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4346868991851807</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5433149337768555</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.373741149902344</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.325154781341553</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4307050704956055</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4314632415771484</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.360613107681274</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.377447128295898</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4201431274414062</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4154970645904541</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.357745885848999</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.434063911437988</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4308688640594482</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4277849197387695</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.368027925491333</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.403877735137939</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5547928810119629</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4418549537658691</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.327131032943726</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.409802913665771</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4311559200286865</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.450221061706543</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.346531629562378</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.294326066970825</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.5364670753479004</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4437351226806641</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.350089073181152</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.342458963394165</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4294369220733643</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4290459156036377</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.202131748199463</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.294306039810181</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4980940818786621</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4320669174194336</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.290891885757446</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.538572072982788</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4379310607910156</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4360220432281494</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.356084108352661</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.453039169311523</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4378161430358887</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.428098201751709</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.359761953353882</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.392975330352783</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4365799427032471</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.435593843460083</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.289186000823975</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.347917079925537</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4229841232299805</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4593572616577148</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.315310955047607</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.368159055709839</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5362601280212402</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4359729290008545</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.337597131729126</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.292757034301758</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.508544921875</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4457809925079346</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.325267791748047</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.575707912445068</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4287970066070557</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4351470470428467</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.36491584777832</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.428388118743896</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4473419189453125</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4326169490814209</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.368690967559814</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.454009056091309</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4824788570404053</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4328060150146484</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.196820974349976</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.333328723907471</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4525182247161865</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4410140514373779</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.304126024246216</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.351600885391235</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4426870346069336</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4222970008850098</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.317275047302246</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.346912860870361</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5290136337280273</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.44097900390625</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.304349899291992</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.326241970062256</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4342389106750488</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4413089752197266</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.300477981567383</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.427503108978271</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.5249967575073242</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4259169101715088</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.426676034927368</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.378606081008911</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4152288436889648</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4295620918273926</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.291805267333984</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.322793006896973</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.542057991027832</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4320602416992188</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.38618278503418</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.338823080062866</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4228780269622803</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4493110179901123</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.285898923873901</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.351062774658203</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4160511493682861</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4608869552612305</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.377227544784546</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.443478107452393</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4280281066894531</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.415020227432251</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.352888107299805</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.534424781799316</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4576888084411621</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.508317232131958</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.439881801605225</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.382310152053833</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_chrome_test_results.xlsx
+++ b/client/test_results/unfiltered_chrome_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4463660717010498</v>
+        <v>0.4336411952972412</v>
       </c>
       <c r="D2" t="n">
-        <v>122.966</v>
+        <v>125.138</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4516658782958984</v>
+        <v>0.4237430095672607</v>
       </c>
       <c r="D3" t="n">
-        <v>162.867</v>
+        <v>165.039</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.376517772674561</v>
+        <v>1.295307159423828</v>
       </c>
       <c r="D4" t="n">
-        <v>187.61</v>
+        <v>189.782</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.395679950714111</v>
+        <v>1.307204008102417</v>
       </c>
       <c r="D5" t="n">
-        <v>240.068</v>
+        <v>242.24</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4376718997955322</v>
+        <v>0.4539780616760254</v>
       </c>
       <c r="D6" t="n">
-        <v>121.011</v>
+        <v>123.183</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4731740951538086</v>
+        <v>0.5646016597747803</v>
       </c>
       <c r="D7" t="n">
-        <v>160.912</v>
+        <v>163.084</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.412964105606079</v>
+        <v>1.439555168151855</v>
       </c>
       <c r="D8" t="n">
-        <v>185.655</v>
+        <v>187.827</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.394715070724487</v>
+        <v>1.320673942565918</v>
       </c>
       <c r="D9" t="n">
-        <v>238.113</v>
+        <v>240.285</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4338250160217285</v>
+        <v>0.4278099536895752</v>
       </c>
       <c r="D10" t="n">
-        <v>122.966</v>
+        <v>125.138</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5663430690765381</v>
+        <v>0.4167590141296387</v>
       </c>
       <c r="D11" t="n">
-        <v>162.867</v>
+        <v>165.039</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.373169898986816</v>
+        <v>1.426414966583252</v>
       </c>
       <c r="D12" t="n">
-        <v>187.61</v>
+        <v>189.782</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.414558887481689</v>
+        <v>1.434534072875977</v>
       </c>
       <c r="D13" t="n">
-        <v>240.068</v>
+        <v>242.24</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4733691215515137</v>
+        <v>0.4559369087219238</v>
       </c>
       <c r="D14" t="n">
-        <v>123.7</v>
+        <v>125.872</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4638233184814453</v>
+        <v>0.427778959274292</v>
       </c>
       <c r="D15" t="n">
-        <v>869.9299999999999</v>
+        <v>872.102</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.421462059020996</v>
+        <v>1.385907173156738</v>
       </c>
       <c r="D16" t="n">
-        <v>193.448</v>
+        <v>195.62</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.445667028427124</v>
+        <v>1.486429929733276</v>
       </c>
       <c r="D17" t="n">
-        <v>946.972</v>
+        <v>949.144</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4275519847869873</v>
+        <v>0.4187681674957275</v>
       </c>
       <c r="D18" t="n">
-        <v>121.745</v>
+        <v>123.917</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4381222724914551</v>
+        <v>0.4307446479797363</v>
       </c>
       <c r="D19" t="n">
-        <v>867.975</v>
+        <v>870.147</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.405090093612671</v>
+        <v>1.414762020111084</v>
       </c>
       <c r="D20" t="n">
-        <v>191.493</v>
+        <v>193.665</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.439934253692627</v>
+        <v>1.512159824371338</v>
       </c>
       <c r="D21" t="n">
-        <v>945.0170000000001</v>
+        <v>947.189</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4556879997253418</v>
+        <v>0.4299969673156738</v>
       </c>
       <c r="D22" t="n">
-        <v>123.7</v>
+        <v>125.872</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4513359069824219</v>
+        <v>0.5375311374664307</v>
       </c>
       <c r="D23" t="n">
-        <v>869.9299999999999</v>
+        <v>872.102</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.362513780593872</v>
+        <v>1.232758760452271</v>
       </c>
       <c r="D24" t="n">
-        <v>193.448</v>
+        <v>195.62</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.554322957992554</v>
+        <v>1.578207015991211</v>
       </c>
       <c r="D25" t="n">
-        <v>946.972</v>
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4454329013824463</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4520161151885986</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.456701278686523</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.417154788970947</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4344718456268311</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4214398860931396</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.419983863830566</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.309377908706665</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4268717765808105</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4505650997161865</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.395316123962402</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.503581047058105</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.431908130645752</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4390189647674561</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.450838088989258</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.411012887954712</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4280788898468018</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5617499351501465</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.475285053253174</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.525076866149902</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4461297988891602</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4439969062805176</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.497833013534546</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.443034887313843</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4362666606903076</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4224262237548828</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.462757110595703</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.393417119979858</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4284842014312744</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4399030208587646</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.473625659942627</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.181690216064453</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4365661144256592</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4317772388458252</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.445382833480835</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.454380750656128</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4161810874938965</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5004298686981201</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.398687839508057</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.398847103118896</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4250900745391846</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4361817836761475</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.452461004257202</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.547031164169312</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4316818714141846</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4963867664337158</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.453532934188843</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.703470706939697</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4194247722625732</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4344680309295654</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.39838981628418</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.420879125595093</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4091639518737793</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4455668926239014</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.364426136016846</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.232213973999023</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4241068363189697</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4275820255279541</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.34567403793335</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.44870138168335</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4339849948883057</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5407347679138184</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.432229042053223</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.514810085296631</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4519269466400146</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.443727970123291</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.444377899169922</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.580393075942993</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4275410175323486</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4958877563476562</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.356751203536987</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.545325994491577</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4355790615081787</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4387431144714355</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.452300071716309</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.441017866134644</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4257237911224365</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5386137962341309</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.409488201141357</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.329957008361816</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4312529563903809</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4263341426849365</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.365398645401001</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.329380750656128</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4283866882324219</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4474802017211914</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.481137037277222</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.498775005340576</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4297308921813965</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.426426887512207</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.432435035705566</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.508118867874146</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4164950847625732</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4386470317840576</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.41718602180481</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.474224090576172</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4361031055450439</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.441774845123291</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.446278095245361</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.402477025985718</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4376227855682373</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4455990791320801</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.451709747314453</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.19521689414978</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4858040809631348</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4235730171203613</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.449753046035767</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.272002935409546</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4558477401733398</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4405779838562012</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.473556041717529</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.51804518699646</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4274678230285645</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4459719657897949</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.236172914505005</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.415552854537964</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4428670406341553</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4329977035522461</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.21524715423584</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.621225357055664</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4392960071563721</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.437798023223877</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.367498874664307</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.328980922698975</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4126379489898682</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6599838733673096</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.516254901885986</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.393776893615723</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4261300563812256</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4398701190948486</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.403484106063843</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.392981052398682</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4271538257598877</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4371671676635742</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.433621168136597</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.531654834747314</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4539337158203125</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4218649864196777</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.352504014968872</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.540985822677612</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4383041858673096</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4370059967041016</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.55224609375</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.46717095375061</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.427919864654541</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4339540004730225</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.417825937271118</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.41793417930603</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4445719718933105</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4444401264190674</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.449261903762817</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.506863832473755</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4349651336669922</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4218950271606445</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.566615104675293</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.489285945892334</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4080069065093994</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4429659843444824</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.2000732421875</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.194006204605103</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4276599884033203</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4445650577545166</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.435622930526733</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.523950815200806</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4362759590148926</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5320520401000977</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.442564010620117</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.483737230300903</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4422690868377686</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4393882751464844</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.388011932373047</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.349748134613037</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4403467178344727</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.429232120513916</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5.61484432220459</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.417490005493164</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.465036153793335</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4322769641876221</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.405952930450439</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.357321977615356</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4397187232971191</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4404458999633789</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.4217689037323</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.506517887115479</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4261469841003418</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4436450004577637</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.40155291557312</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.525283098220825</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4382100105285645</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4377593994140625</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.425584316253662</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.193950891494751</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4532370567321777</v>
+      </c>
+      <c r="D2" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4414842128753662</v>
+      </c>
+      <c r="D3" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.447173833847046</v>
+      </c>
+      <c r="D4" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.394661903381348</v>
+      </c>
+      <c r="D5" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4314720630645752</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4245169162750244</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.397682905197144</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.420475006103516</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.441093921661377</v>
+      </c>
+      <c r="D10" t="n">
+        <v>125.138</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4271931648254395</v>
+      </c>
+      <c r="D11" t="n">
+        <v>165.039</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.382122993469238</v>
+      </c>
+      <c r="D12" t="n">
+        <v>189.782</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.453347206115723</v>
+      </c>
+      <c r="D13" t="n">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4351880550384521</v>
+      </c>
+      <c r="D14" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4351270198822021</v>
+      </c>
+      <c r="D15" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.41590404510498</v>
+      </c>
+      <c r="D16" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.739049196243286</v>
+      </c>
+      <c r="D17" t="n">
+        <v>949.144</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4254059791564941</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.917</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4221301078796387</v>
+      </c>
+      <c r="D19" t="n">
+        <v>870.147</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.35145092010498</v>
+      </c>
+      <c r="D20" t="n">
+        <v>193.665</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.433825016021729</v>
+      </c>
+      <c r="D21" t="n">
+        <v>947.189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.420555591583252</v>
+      </c>
+      <c r="D22" t="n">
+        <v>125.872</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4431660175323486</v>
+      </c>
+      <c r="D23" t="n">
+        <v>872.102</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.461703300476074</v>
+      </c>
+      <c r="D24" t="n">
+        <v>195.62</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.617735147476196</v>
+      </c>
+      <c r="D25" t="n">
+        <v>949.144</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_chrome_test_results.xlsx
+++ b/client/test_results/unfiltered_chrome_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4457612037658691</v>
+        <v>0.4230918884277344</v>
       </c>
       <c r="D2" t="n">
-        <v>95.61799999999999</v>
+        <v>97.79000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4492430686950684</v>
+        <v>0.4221467971801758</v>
       </c>
       <c r="D3" t="n">
-        <v>115.976</v>
+        <v>118.148</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.094192266464233</v>
+        <v>1.160394906997681</v>
       </c>
       <c r="D4" t="n">
-        <v>162.222</v>
+        <v>164.394</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.420133829116821</v>
+        <v>1.37927508354187</v>
       </c>
       <c r="D5" t="n">
-        <v>193.177</v>
+        <v>195.349</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4437930583953857</v>
+        <v>0.4407696723937988</v>
       </c>
       <c r="D6" t="n">
-        <v>92.167</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4748539924621582</v>
+        <v>0.4384410381317139</v>
       </c>
       <c r="D7" t="n">
-        <v>112.525</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.452162027359009</v>
+        <v>1.342072725296021</v>
       </c>
       <c r="D8" t="n">
-        <v>158.771</v>
+        <v>160.943</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.350816965103149</v>
+        <v>1.32325291633606</v>
       </c>
       <c r="D9" t="n">
-        <v>189.726</v>
+        <v>191.898</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4537320137023926</v>
+        <v>0.4307811260223389</v>
       </c>
       <c r="D10" t="n">
-        <v>95.61799999999999</v>
+        <v>97.79000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4500889778137207</v>
+        <v>0.4298958778381348</v>
       </c>
       <c r="D11" t="n">
-        <v>115.976</v>
+        <v>118.148</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.279157161712646</v>
+        <v>1.270219802856445</v>
       </c>
       <c r="D12" t="n">
-        <v>162.222</v>
+        <v>164.394</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.336320877075195</v>
+        <v>1.212393045425415</v>
       </c>
       <c r="D13" t="n">
-        <v>193.177</v>
+        <v>195.349</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4401657581329346</v>
+        <v>0.5327622890472412</v>
       </c>
       <c r="D14" t="n">
-        <v>92.86499999999999</v>
+        <v>95.03700000000001</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4640851020812988</v>
+        <v>0.4393789768218994</v>
       </c>
       <c r="D15" t="n">
-        <v>501.437</v>
+        <v>503.609</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.346732139587402</v>
+        <v>1.218227386474609</v>
       </c>
       <c r="D16" t="n">
-        <v>164.036</v>
+        <v>166.208</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.311748027801514</v>
+        <v>1.470468044281006</v>
       </c>
       <c r="D17" t="n">
-        <v>578.479</v>
+        <v>580.651</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4528720378875732</v>
+        <v>0.433678150177002</v>
       </c>
       <c r="D18" t="n">
-        <v>89.414</v>
+        <v>91.586</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4626967906951904</v>
+        <v>0.4291250705718994</v>
       </c>
       <c r="D19" t="n">
-        <v>497.986</v>
+        <v>500.158</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.356055021286011</v>
+        <v>1.366234064102173</v>
       </c>
       <c r="D20" t="n">
-        <v>160.585</v>
+        <v>162.757</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.37232494354248</v>
+        <v>1.343482732772827</v>
       </c>
       <c r="D21" t="n">
-        <v>575.028</v>
+        <v>577.2</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4367609024047852</v>
+        <v>0.4194438457489014</v>
       </c>
       <c r="D22" t="n">
-        <v>92.86499999999999</v>
+        <v>95.03700000000001</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4633760452270508</v>
+        <v>0.4600319862365723</v>
       </c>
       <c r="D23" t="n">
-        <v>501.437</v>
+        <v>503.609</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.208842039108276</v>
+        <v>1.327855110168457</v>
       </c>
       <c r="D24" t="n">
-        <v>164.036</v>
+        <v>166.208</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.355772018432617</v>
+        <v>1.393519163131714</v>
       </c>
       <c r="D25" t="n">
-        <v>578.479</v>
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4277961254119873</v>
+      </c>
+      <c r="D2" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4361300468444824</v>
+      </c>
+      <c r="D3" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.333374977111816</v>
+      </c>
+      <c r="D4" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.310664892196655</v>
+      </c>
+      <c r="D5" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4169509410858154</v>
+      </c>
+      <c r="D6" t="n">
+        <v>94.339</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.420853853225708</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.697</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.362552165985107</v>
+      </c>
+      <c r="D8" t="n">
+        <v>160.943</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.306230783462524</v>
+      </c>
+      <c r="D9" t="n">
+        <v>191.898</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4301860332489014</v>
+      </c>
+      <c r="D10" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4292271137237549</v>
+      </c>
+      <c r="D11" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.254032135009766</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.445783853530884</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4339830875396729</v>
+      </c>
+      <c r="D14" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.428678035736084</v>
+      </c>
+      <c r="D15" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.342332124710083</v>
+      </c>
+      <c r="D16" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.261964082717896</v>
+      </c>
+      <c r="D17" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4328560829162598</v>
+      </c>
+      <c r="D18" t="n">
+        <v>91.586</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4323861598968506</v>
+      </c>
+      <c r="D19" t="n">
+        <v>500.158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.434055089950562</v>
+      </c>
+      <c r="D20" t="n">
+        <v>162.757</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.168231964111328</v>
+      </c>
+      <c r="D21" t="n">
+        <v>577.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4495639801025391</v>
+      </c>
+      <c r="D22" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4335908889770508</v>
+      </c>
+      <c r="D23" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.340424060821533</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.353788137435913</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4181802272796631</v>
+      </c>
+      <c r="D2" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4259629249572754</v>
+      </c>
+      <c r="D3" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.323430061340332</v>
+      </c>
+      <c r="D4" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.328212022781372</v>
+      </c>
+      <c r="D5" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4183528423309326</v>
+      </c>
+      <c r="D6" t="n">
+        <v>94.339</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4362859725952148</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.697</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.354227781295776</v>
+      </c>
+      <c r="D8" t="n">
+        <v>160.943</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.348687171936035</v>
+      </c>
+      <c r="D9" t="n">
+        <v>191.898</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4784121513366699</v>
+      </c>
+      <c r="D10" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4258079528808594</v>
+      </c>
+      <c r="D11" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.149531841278076</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.304311037063599</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4174246788024902</v>
+      </c>
+      <c r="D14" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4193930625915527</v>
+      </c>
+      <c r="D15" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.328184127807617</v>
+      </c>
+      <c r="D16" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.372311115264893</v>
+      </c>
+      <c r="D17" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4222462177276611</v>
+      </c>
+      <c r="D18" t="n">
+        <v>91.586</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4408767223358154</v>
+      </c>
+      <c r="D19" t="n">
+        <v>500.158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.243689060211182</v>
+      </c>
+      <c r="D20" t="n">
+        <v>162.757</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.299453735351562</v>
+      </c>
+      <c r="D21" t="n">
+        <v>577.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4441409111022949</v>
+      </c>
+      <c r="D22" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.430272102355957</v>
+      </c>
+      <c r="D23" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.206128835678101</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.279367208480835</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4198589324951172</v>
+      </c>
+      <c r="D2" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4389660358428955</v>
+      </c>
+      <c r="D3" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.263457059860229</v>
+      </c>
+      <c r="D4" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.40813684463501</v>
+      </c>
+      <c r="D5" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4436149597167969</v>
+      </c>
+      <c r="D6" t="n">
+        <v>94.339</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5491747856140137</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.697</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.333971977233887</v>
+      </c>
+      <c r="D8" t="n">
+        <v>160.943</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.391135215759277</v>
+      </c>
+      <c r="D9" t="n">
+        <v>191.898</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4263451099395752</v>
+      </c>
+      <c r="D10" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4294328689575195</v>
+      </c>
+      <c r="D11" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.40510892868042</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.362171173095703</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4196212291717529</v>
+      </c>
+      <c r="D14" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4264309406280518</v>
+      </c>
+      <c r="D15" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.273046016693115</v>
+      </c>
+      <c r="D16" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.230042219161987</v>
+      </c>
+      <c r="D17" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4242622852325439</v>
+      </c>
+      <c r="D18" t="n">
+        <v>91.586</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.452538013458252</v>
+      </c>
+      <c r="D19" t="n">
+        <v>500.158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.313923120498657</v>
+      </c>
+      <c r="D20" t="n">
+        <v>162.757</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.335220336914062</v>
+      </c>
+      <c r="D21" t="n">
+        <v>577.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4334590435028076</v>
+      </c>
+      <c r="D22" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.422313928604126</v>
+      </c>
+      <c r="D23" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.212021112442017</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.286562919616699</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5006380081176758</v>
+      </c>
+      <c r="D2" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.458730936050415</v>
+      </c>
+      <c r="D3" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.30173921585083</v>
+      </c>
+      <c r="D4" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.326936960220337</v>
+      </c>
+      <c r="D5" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4439907073974609</v>
+      </c>
+      <c r="D6" t="n">
+        <v>94.339</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4534649848937988</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.697</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.552923917770386</v>
+      </c>
+      <c r="D8" t="n">
+        <v>160.943</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.270755052566528</v>
+      </c>
+      <c r="D9" t="n">
+        <v>191.898</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4244379997253418</v>
+      </c>
+      <c r="D10" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4305882453918457</v>
+      </c>
+      <c r="D11" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.329210042953491</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.438224077224731</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4271008968353271</v>
+      </c>
+      <c r="D14" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4368340969085693</v>
+      </c>
+      <c r="D15" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.376905918121338</v>
+      </c>
+      <c r="D16" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.331102848052979</v>
+      </c>
+      <c r="D17" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4321801662445068</v>
+      </c>
+      <c r="D18" t="n">
+        <v>91.586</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4157660007476807</v>
+      </c>
+      <c r="D19" t="n">
+        <v>500.158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.301932096481323</v>
+      </c>
+      <c r="D20" t="n">
+        <v>162.757</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.302489042282104</v>
+      </c>
+      <c r="D21" t="n">
+        <v>577.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4279599189758301</v>
+      </c>
+      <c r="D22" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4358298778533936</v>
+      </c>
+      <c r="D23" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.343635320663452</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.283876895904541</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4235870838165283</v>
+      </c>
+      <c r="D2" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4333388805389404</v>
+      </c>
+      <c r="D3" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.409224033355713</v>
+      </c>
+      <c r="D4" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.363635063171387</v>
+      </c>
+      <c r="D5" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4176969528198242</v>
+      </c>
+      <c r="D6" t="n">
+        <v>94.339</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4380836486816406</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.697</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.342818021774292</v>
+      </c>
+      <c r="D8" t="n">
+        <v>160.943</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.358778953552246</v>
+      </c>
+      <c r="D9" t="n">
+        <v>191.898</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4603030681610107</v>
+      </c>
+      <c r="D10" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4489281177520752</v>
+      </c>
+      <c r="D11" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.239330768585205</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.305003881454468</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.426814079284668</v>
+      </c>
+      <c r="D14" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4367349147796631</v>
+      </c>
+      <c r="D15" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.389938116073608</v>
+      </c>
+      <c r="D16" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.312988996505737</v>
+      </c>
+      <c r="D17" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4407708644866943</v>
+      </c>
+      <c r="D18" t="n">
+        <v>91.586</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4209721088409424</v>
+      </c>
+      <c r="D19" t="n">
+        <v>500.158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.280298233032227</v>
+      </c>
+      <c r="D20" t="n">
+        <v>162.757</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.354965925216675</v>
+      </c>
+      <c r="D21" t="n">
+        <v>577.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4202561378479004</v>
+      </c>
+      <c r="D22" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4334030151367188</v>
+      </c>
+      <c r="D23" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.17346715927124</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.271481275558472</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4261622428894043</v>
+      </c>
+      <c r="D2" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4254970550537109</v>
+      </c>
+      <c r="D3" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.302881956100464</v>
+      </c>
+      <c r="D4" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.246505975723267</v>
+      </c>
+      <c r="D5" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4300210475921631</v>
+      </c>
+      <c r="D6" t="n">
+        <v>94.339</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.448145866394043</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.697</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.29598593711853</v>
+      </c>
+      <c r="D8" t="n">
+        <v>160.943</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.3176109790802</v>
+      </c>
+      <c r="D9" t="n">
+        <v>191.898</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4301559925079346</v>
+      </c>
+      <c r="D10" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4195828437805176</v>
+      </c>
+      <c r="D11" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.326173782348633</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.219996929168701</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4424500465393066</v>
+      </c>
+      <c r="D14" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4406278133392334</v>
+      </c>
+      <c r="D15" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.349884033203125</v>
+      </c>
+      <c r="D16" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.358552932739258</v>
+      </c>
+      <c r="D17" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4231948852539062</v>
+      </c>
+      <c r="D18" t="n">
+        <v>91.586</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4241862297058105</v>
+      </c>
+      <c r="D19" t="n">
+        <v>500.158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.218119144439697</v>
+      </c>
+      <c r="D20" t="n">
+        <v>162.757</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.166821241378784</v>
+      </c>
+      <c r="D21" t="n">
+        <v>577.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4324700832366943</v>
+      </c>
+      <c r="D22" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4291210174560547</v>
+      </c>
+      <c r="D23" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.29363489151001</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.286797761917114</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.471193790435791</v>
+      </c>
+      <c r="D2" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.433873176574707</v>
+      </c>
+      <c r="D3" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.349881649017334</v>
+      </c>
+      <c r="D4" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.364224910736084</v>
+      </c>
+      <c r="D5" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4339919090270996</v>
+      </c>
+      <c r="D6" t="n">
+        <v>94.339</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4416100978851318</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.697</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.380181789398193</v>
+      </c>
+      <c r="D8" t="n">
+        <v>160.943</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.230096101760864</v>
+      </c>
+      <c r="D9" t="n">
+        <v>191.898</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4242889881134033</v>
+      </c>
+      <c r="D10" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4366600513458252</v>
+      </c>
+      <c r="D11" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.323332786560059</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.201160907745361</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4202771186828613</v>
+      </c>
+      <c r="D14" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.433398962020874</v>
+      </c>
+      <c r="D15" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.322397232055664</v>
+      </c>
+      <c r="D16" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.340646028518677</v>
+      </c>
+      <c r="D17" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.432307243347168</v>
+      </c>
+      <c r="D18" t="n">
+        <v>91.586</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4283831119537354</v>
+      </c>
+      <c r="D19" t="n">
+        <v>500.158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.344007968902588</v>
+      </c>
+      <c r="D20" t="n">
+        <v>162.757</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.347009181976318</v>
+      </c>
+      <c r="D21" t="n">
+        <v>577.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4369931221008301</v>
+      </c>
+      <c r="D22" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4185600280761719</v>
+      </c>
+      <c r="D23" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.328919172286987</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.264147043228149</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.5435659885406494</v>
+      </c>
+      <c r="D2" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4365880489349365</v>
+      </c>
+      <c r="D3" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.295411348342896</v>
+      </c>
+      <c r="D4" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.112360954284668</v>
+      </c>
+      <c r="D5" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4279990196228027</v>
+      </c>
+      <c r="D6" t="n">
+        <v>94.339</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4199478626251221</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.697</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.336342096328735</v>
+      </c>
+      <c r="D8" t="n">
+        <v>160.943</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.222202062606812</v>
+      </c>
+      <c r="D9" t="n">
+        <v>191.898</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4352262020111084</v>
+      </c>
+      <c r="D10" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.428178071975708</v>
+      </c>
+      <c r="D11" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.348766803741455</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.357944011688232</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4365458488464355</v>
+      </c>
+      <c r="D14" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4574153423309326</v>
+      </c>
+      <c r="D15" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.322311878204346</v>
+      </c>
+      <c r="D16" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.219854116439819</v>
+      </c>
+      <c r="D17" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4806418418884277</v>
+      </c>
+      <c r="D18" t="n">
+        <v>91.586</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4448373317718506</v>
+      </c>
+      <c r="D19" t="n">
+        <v>500.158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.317131996154785</v>
+      </c>
+      <c r="D20" t="n">
+        <v>162.757</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.434115171432495</v>
+      </c>
+      <c r="D21" t="n">
+        <v>577.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.43461012840271</v>
+      </c>
+      <c r="D22" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4272470474243164</v>
+      </c>
+      <c r="D23" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.359154939651489</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.340489864349365</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4317488670349121</v>
+      </c>
+      <c r="D2" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4304718971252441</v>
+      </c>
+      <c r="D3" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.363640069961548</v>
+      </c>
+      <c r="D4" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.348603963851929</v>
+      </c>
+      <c r="D5" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4154770374298096</v>
+      </c>
+      <c r="D6" t="n">
+        <v>94.339</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4367408752441406</v>
+      </c>
+      <c r="D7" t="n">
+        <v>114.697</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.417255163192749</v>
+      </c>
+      <c r="D8" t="n">
+        <v>160.943</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.256850957870483</v>
+      </c>
+      <c r="D9" t="n">
+        <v>191.898</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5390961170196533</v>
+      </c>
+      <c r="D10" t="n">
+        <v>97.79000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4221911430358887</v>
+      </c>
+      <c r="D11" t="n">
+        <v>118.148</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.302908897399902</v>
+      </c>
+      <c r="D12" t="n">
+        <v>164.394</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.381864786148071</v>
+      </c>
+      <c r="D13" t="n">
+        <v>195.349</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4338338375091553</v>
+      </c>
+      <c r="D14" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5390660762786865</v>
+      </c>
+      <c r="D15" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6861560344696045</v>
+      </c>
+      <c r="D16" t="n">
+        <v>89.048</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.34912109375</v>
+      </c>
+      <c r="D17" t="n">
+        <v>580.651</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4402410984039307</v>
+      </c>
+      <c r="D18" t="n">
+        <v>91.586</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.435065746307373</v>
+      </c>
+      <c r="D19" t="n">
+        <v>500.158</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.356258153915405</v>
+      </c>
+      <c r="D20" t="n">
+        <v>162.757</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.453235864639282</v>
+      </c>
+      <c r="D21" t="n">
+        <v>577.2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4318511486053467</v>
+      </c>
+      <c r="D22" t="n">
+        <v>95.03700000000001</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4303340911865234</v>
+      </c>
+      <c r="D23" t="n">
+        <v>503.609</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.368556022644043</v>
+      </c>
+      <c r="D24" t="n">
+        <v>166.208</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.366480112075806</v>
+      </c>
+      <c r="D25" t="n">
+        <v>580.651</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_chrome_test_results.xlsx
+++ b/client/test_results/unfiltered_chrome_test_results.xlsx
@@ -474,10 +474,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4117500782012939</v>
+        <v>0.703455924987793</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4179348945617676</v>
+        <v>0.4326839447021484</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -506,10 +506,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.307939767837524</v>
+        <v>1.329919099807739</v>
       </c>
       <c r="D4" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="5">
@@ -522,10 +522,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.453275203704834</v>
+        <v>1.379570007324219</v>
       </c>
       <c r="D5" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="6">
@@ -538,10 +538,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4478819370269775</v>
+        <v>0.4282362461090088</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -554,10 +554,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4223978519439697</v>
+        <v>0.4393479824066162</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -570,10 +570,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.215502977371216</v>
+        <v>1.490283012390137</v>
       </c>
       <c r="D8" t="n">
-        <v>187.827</v>
+        <v>160.943</v>
       </c>
     </row>
     <row r="9">
@@ -586,10 +586,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.290920972824097</v>
+        <v>1.271557807922363</v>
       </c>
       <c r="D9" t="n">
-        <v>240.285</v>
+        <v>191.898</v>
       </c>
     </row>
     <row r="10">
@@ -602,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4319658279418945</v>
+        <v>0.4402430057525635</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -618,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4214949607849121</v>
+        <v>0.4125630855560303</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -634,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.279378175735474</v>
+        <v>1.312514781951904</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -650,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.298293113708496</v>
+        <v>1.334364891052246</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -666,10 +666,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4190678596496582</v>
+        <v>0.4257049560546875</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="15">
@@ -682,10 +682,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5260720252990723</v>
+        <v>0.4502878189086914</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="16">
@@ -698,10 +698,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.365631103515625</v>
+        <v>1.432739973068237</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="17">
@@ -714,10 +714,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.266115665435791</v>
+        <v>1.347969055175781</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
     <row r="18">
@@ -730,10 +730,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4403707981109619</v>
+        <v>0.4311990737915039</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.586</v>
       </c>
     </row>
     <row r="19">
@@ -746,10 +746,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4339580535888672</v>
+        <v>0.4395451545715332</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>500.158</v>
       </c>
     </row>
     <row r="20">
@@ -762,10 +762,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.271799802780151</v>
+        <v>1.203548908233643</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.757</v>
       </c>
     </row>
     <row r="21">
@@ -778,10 +778,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.360035181045532</v>
+        <v>1.322209119796753</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>577.2</v>
       </c>
     </row>
     <row r="22">
@@ -794,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4012470245361328</v>
+        <v>0.4296579360961914</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -810,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4221649169921875</v>
+        <v>0.4205391407012939</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -826,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.339321136474609</v>
+        <v>1.401256799697876</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -842,10 +842,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.284933805465698</v>
+        <v>1.317514181137085</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -899,10 +899,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.415071964263916</v>
+        <v>0.4195380210876465</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -915,10 +915,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4417459964752197</v>
+        <v>0.4257240295410156</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -931,10 +931,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.294878959655762</v>
+        <v>1.328550815582275</v>
       </c>
       <c r="D4" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="5">
@@ -947,10 +947,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.269301176071167</v>
+        <v>1.256331920623779</v>
       </c>
       <c r="D5" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="6">
@@ -963,10 +963,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4004449844360352</v>
+        <v>0.4287302494049072</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -979,10 +979,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4079928398132324</v>
+        <v>0.4502589702606201</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -995,10 +995,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.290025949478149</v>
+        <v>1.211447715759277</v>
       </c>
       <c r="D8" t="n">
-        <v>187.827</v>
+        <v>160.943</v>
       </c>
     </row>
     <row r="9">
@@ -1011,10 +1011,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.281501770019531</v>
+        <v>1.361482858657837</v>
       </c>
       <c r="D9" t="n">
-        <v>240.285</v>
+        <v>191.898</v>
       </c>
     </row>
     <row r="10">
@@ -1027,10 +1027,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.412205696105957</v>
+        <v>0.428225040435791</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -1043,10 +1043,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4303312301635742</v>
+        <v>0.4169800281524658</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -1059,10 +1059,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.266782999038696</v>
+        <v>1.322010040283203</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -1075,10 +1075,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.310979127883911</v>
+        <v>1.32783579826355</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -1091,10 +1091,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5513579845428467</v>
+        <v>0.4249870777130127</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="15">
@@ -1107,10 +1107,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4195847511291504</v>
+        <v>0.4474890232086182</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="16">
@@ -1123,10 +1123,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.340390920639038</v>
+        <v>1.315199851989746</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="17">
@@ -1139,10 +1139,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.12136697769165</v>
+        <v>1.332353591918945</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
     <row r="18">
@@ -1155,10 +1155,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4259281158447266</v>
+        <v>0.4311227798461914</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.586</v>
       </c>
     </row>
     <row r="19">
@@ -1171,10 +1171,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4138240814208984</v>
+        <v>0.4110140800476074</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>500.158</v>
       </c>
     </row>
     <row r="20">
@@ -1187,10 +1187,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.283750057220459</v>
+        <v>1.280151128768921</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.757</v>
       </c>
     </row>
     <row r="21">
@@ -1203,10 +1203,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.311750888824463</v>
+        <v>1.387606859207153</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>577.2</v>
       </c>
     </row>
     <row r="22">
@@ -1219,10 +1219,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4259629249572754</v>
+        <v>0.4298198223114014</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -1235,10 +1235,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4062929153442383</v>
+        <v>0.4370970726013184</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -1251,10 +1251,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.406457901000977</v>
+        <v>1.382188081741333</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -1267,10 +1267,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.320794105529785</v>
+        <v>1.324537992477417</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -1324,10 +1324,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4029369354248047</v>
+        <v>0.4354028701782227</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -1340,10 +1340,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4127418994903564</v>
+        <v>0.4480860233306885</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -1356,10 +1356,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.269936084747314</v>
+        <v>1.271583080291748</v>
       </c>
       <c r="D4" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="5">
@@ -1372,10 +1372,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.307082891464233</v>
+        <v>1.330370903015137</v>
       </c>
       <c r="D5" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="6">
@@ -1388,10 +1388,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4309618473052979</v>
+        <v>0.4288101196289062</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -1404,10 +1404,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4159951210021973</v>
+        <v>0.5216689109802246</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -1420,10 +1420,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.264130830764771</v>
+        <v>1.33047080039978</v>
       </c>
       <c r="D8" t="n">
-        <v>187.827</v>
+        <v>160.943</v>
       </c>
     </row>
     <row r="9">
@@ -1436,10 +1436,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.243427753448486</v>
+        <v>1.343106985092163</v>
       </c>
       <c r="D9" t="n">
-        <v>240.285</v>
+        <v>191.898</v>
       </c>
     </row>
     <row r="10">
@@ -1452,10 +1452,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4300200939178467</v>
+        <v>0.4460420608520508</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -1468,10 +1468,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.41963791847229</v>
+        <v>0.4190490245819092</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -1484,10 +1484,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.330866813659668</v>
+        <v>1.348567962646484</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -1500,10 +1500,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.328175067901611</v>
+        <v>1.34490704536438</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -1516,10 +1516,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4282691478729248</v>
+        <v>0.4265661239624023</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="15">
@@ -1532,10 +1532,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4403548240661621</v>
+        <v>0.4235382080078125</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="16">
@@ -1548,10 +1548,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.238193988800049</v>
+        <v>1.321744918823242</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="17">
@@ -1564,10 +1564,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.407756090164185</v>
+        <v>1.323503255844116</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
     <row r="18">
@@ -1580,10 +1580,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4659900665283203</v>
+        <v>0.4331839084625244</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.586</v>
       </c>
     </row>
     <row r="19">
@@ -1596,10 +1596,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3983550071716309</v>
+        <v>0.4345009326934814</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>500.158</v>
       </c>
     </row>
     <row r="20">
@@ -1612,10 +1612,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.296170949935913</v>
+        <v>1.330440998077393</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.757</v>
       </c>
     </row>
     <row r="21">
@@ -1628,10 +1628,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.405971765518188</v>
+        <v>1.307757139205933</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>577.2</v>
       </c>
     </row>
     <row r="22">
@@ -1644,10 +1644,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4406700134277344</v>
+        <v>0.4168052673339844</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -1660,10 +1660,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4230668544769287</v>
+        <v>0.4189486503601074</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -1676,10 +1676,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.21809196472168</v>
+        <v>0.6950037479400635</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>87.55200000000001</v>
       </c>
     </row>
     <row r="25">
@@ -1692,10 +1692,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.426125049591064</v>
+        <v>1.308442831039429</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -1749,10 +1749,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4315879344940186</v>
+        <v>0.4184060096740723</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -1765,10 +1765,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4205408096313477</v>
+        <v>0.4280850887298584</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -1781,10 +1781,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.314913034439087</v>
+        <v>1.367453098297119</v>
       </c>
       <c r="D4" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="5">
@@ -1797,10 +1797,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.354984283447266</v>
+        <v>1.290822744369507</v>
       </c>
       <c r="D5" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="6">
@@ -1813,10 +1813,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4092388153076172</v>
+        <v>0.4290387630462646</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -1829,10 +1829,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4185793399810791</v>
+        <v>0.4191648960113525</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -1845,10 +1845,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.287710905075073</v>
+        <v>1.138642072677612</v>
       </c>
       <c r="D8" t="n">
-        <v>187.827</v>
+        <v>83.783</v>
       </c>
     </row>
     <row r="9">
@@ -1861,10 +1861,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.319250106811523</v>
+        <v>1.316592216491699</v>
       </c>
       <c r="D9" t="n">
-        <v>240.285</v>
+        <v>191.898</v>
       </c>
     </row>
     <row r="10">
@@ -1877,10 +1877,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4292259216308594</v>
+        <v>0.4278569221496582</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -1893,10 +1893,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4135532379150391</v>
+        <v>0.4283881187438965</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -1909,10 +1909,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.300777196884155</v>
+        <v>1.345581769943237</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -1925,10 +1925,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.651467084884644</v>
+        <v>1.350629806518555</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -1941,10 +1941,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4316940307617188</v>
+        <v>0.4333992004394531</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="15">
@@ -1957,10 +1957,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4298310279846191</v>
+        <v>0.4347548484802246</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="16">
@@ -1973,10 +1973,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.226620197296143</v>
+        <v>1.241914033889771</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="17">
@@ -1989,10 +1989,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.254501104354858</v>
+        <v>1.335300922393799</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
     <row r="18">
@@ -2005,10 +2005,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5315158367156982</v>
+        <v>0.4319260120391846</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.586</v>
       </c>
     </row>
     <row r="19">
@@ -2021,10 +2021,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4401500225067139</v>
+        <v>0.4397499561309814</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>500.158</v>
       </c>
     </row>
     <row r="20">
@@ -2037,10 +2037,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.276478052139282</v>
+        <v>1.321661949157715</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.757</v>
       </c>
     </row>
     <row r="21">
@@ -2053,10 +2053,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.261334896087646</v>
+        <v>1.302694797515869</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>577.2</v>
       </c>
     </row>
     <row r="22">
@@ -2069,10 +2069,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4389350414276123</v>
+        <v>0.4277718067169189</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -2085,10 +2085,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4169881343841553</v>
+        <v>0.4191751480102539</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -2101,10 +2101,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.247254133224487</v>
+        <v>1.201395988464355</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -2117,10 +2117,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.419989109039307</v>
+        <v>1.347786903381348</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -2174,10 +2174,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4243457317352295</v>
+        <v>0.4359378814697266</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -2190,10 +2190,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4077191352844238</v>
+        <v>0.4406981468200684</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -2206,10 +2206,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.316898822784424</v>
+        <v>1.323104858398438</v>
       </c>
       <c r="D4" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="5">
@@ -2222,10 +2222,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.322936058044434</v>
+        <v>1.323846817016602</v>
       </c>
       <c r="D5" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="6">
@@ -2238,10 +2238,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4197089672088623</v>
+        <v>0.4340348243713379</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -2254,10 +2254,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4315619468688965</v>
+        <v>0.4104039669036865</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -2270,10 +2270,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.310781955718994</v>
+        <v>1.203999996185303</v>
       </c>
       <c r="D8" t="n">
-        <v>187.827</v>
+        <v>160.943</v>
       </c>
     </row>
     <row r="9">
@@ -2286,10 +2286,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.256369113922119</v>
+        <v>1.277799367904663</v>
       </c>
       <c r="D9" t="n">
-        <v>240.285</v>
+        <v>191.898</v>
       </c>
     </row>
     <row r="10">
@@ -2302,10 +2302,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4441459178924561</v>
+        <v>0.4109389781951904</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -2318,10 +2318,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.413060188293457</v>
+        <v>0.4235310554504395</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -2334,10 +2334,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.271224021911621</v>
+        <v>1.311044931411743</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -2350,10 +2350,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.296440124511719</v>
+        <v>1.304244995117188</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -2366,10 +2366,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4258298873901367</v>
+        <v>0.4248666763305664</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="15">
@@ -2382,10 +2382,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4137341976165771</v>
+        <v>0.4220309257507324</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="16">
@@ -2398,10 +2398,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.30249285697937</v>
+        <v>1.444427013397217</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="17">
@@ -2414,10 +2414,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.050312042236328</v>
+        <v>1.353652000427246</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
     <row r="18">
@@ -2430,10 +2430,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4074397087097168</v>
+        <v>0.4271359443664551</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.586</v>
       </c>
     </row>
     <row r="19">
@@ -2446,10 +2446,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4024088382720947</v>
+        <v>0.4323060512542725</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>500.158</v>
       </c>
     </row>
     <row r="20">
@@ -2462,10 +2462,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.351251125335693</v>
+        <v>1.329137086868286</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.757</v>
       </c>
     </row>
     <row r="21">
@@ -2478,10 +2478,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.326786994934082</v>
+        <v>1.34648609161377</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>577.2</v>
       </c>
     </row>
     <row r="22">
@@ -2494,10 +2494,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5731930732727051</v>
+        <v>0.4201641082763672</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -2510,10 +2510,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4294672012329102</v>
+        <v>0.427786111831665</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -2526,10 +2526,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.165384769439697</v>
+        <v>1.374115705490112</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -2542,10 +2542,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.422038078308105</v>
+        <v>1.364699840545654</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -2599,10 +2599,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4291691780090332</v>
+        <v>0.4335410594940186</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -2615,10 +2615,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4390630722045898</v>
+        <v>0.4255349636077881</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -2631,10 +2631,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.288537979125977</v>
+        <v>1.292720794677734</v>
       </c>
       <c r="D4" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="5">
@@ -2647,10 +2647,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.275789022445679</v>
+        <v>1.207664012908936</v>
       </c>
       <c r="D5" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="6">
@@ -2663,10 +2663,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4171559810638428</v>
+        <v>0.433845043182373</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -2679,10 +2679,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4332847595214844</v>
+        <v>0.4315252304077148</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -2695,10 +2695,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.34508490562439</v>
+        <v>1.343345165252686</v>
       </c>
       <c r="D8" t="n">
-        <v>187.827</v>
+        <v>160.943</v>
       </c>
     </row>
     <row r="9">
@@ -2711,10 +2711,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.289674043655396</v>
+        <v>1.298155069351196</v>
       </c>
       <c r="D9" t="n">
-        <v>240.285</v>
+        <v>191.898</v>
       </c>
     </row>
     <row r="10">
@@ -2727,10 +2727,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.412484884262085</v>
+        <v>0.4302608966827393</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2743,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4337248802185059</v>
+        <v>0.4403188228607178</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -2759,10 +2759,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.325938940048218</v>
+        <v>1.310447216033936</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -2775,10 +2775,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.412055969238281</v>
+        <v>1.347800254821777</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -2791,10 +2791,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5247719287872314</v>
+        <v>0.4168219566345215</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="15">
@@ -2807,10 +2807,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4165010452270508</v>
+        <v>0.4307618141174316</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="16">
@@ -2823,10 +2823,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.292253017425537</v>
+        <v>1.311691045761108</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="17">
@@ -2839,10 +2839,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.367924928665161</v>
+        <v>1.603606939315796</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
     <row r="18">
@@ -2855,10 +2855,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4078881740570068</v>
+        <v>0.4432480335235596</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.586</v>
       </c>
     </row>
     <row r="19">
@@ -2871,10 +2871,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4280498027801514</v>
+        <v>0.4281680583953857</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>500.158</v>
       </c>
     </row>
     <row r="20">
@@ -2887,10 +2887,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.365586280822754</v>
+        <v>1.209949016571045</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.757</v>
       </c>
     </row>
     <row r="21">
@@ -2903,10 +2903,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.350138187408447</v>
+        <v>1.257727146148682</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>577.2</v>
       </c>
     </row>
     <row r="22">
@@ -2919,10 +2919,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5172069072723389</v>
+        <v>0.417229175567627</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -2935,10 +2935,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4324779510498047</v>
+        <v>0.4256277084350586</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -2951,10 +2951,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.297645807266235</v>
+        <v>1.280283212661743</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -2967,10 +2967,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.370713233947754</v>
+        <v>1.284275054931641</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -3024,10 +3024,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4390499591827393</v>
+        <v>0.4640707969665527</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -3040,10 +3040,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4050741195678711</v>
+        <v>0.4294071197509766</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -3056,10 +3056,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.280807971954346</v>
+        <v>1.356510877609253</v>
       </c>
       <c r="D4" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="5">
@@ -3072,10 +3072,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.308569669723511</v>
+        <v>1.358855009078979</v>
       </c>
       <c r="D5" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="6">
@@ -3088,10 +3088,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.409168004989624</v>
+        <v>0.4376950263977051</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -3104,10 +3104,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4002611637115479</v>
+        <v>0.4927730560302734</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -3120,10 +3120,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.281618118286133</v>
+        <v>1.357300996780396</v>
       </c>
       <c r="D8" t="n">
-        <v>187.827</v>
+        <v>160.943</v>
       </c>
     </row>
     <row r="9">
@@ -3136,10 +3136,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.213498115539551</v>
+        <v>1.373157262802124</v>
       </c>
       <c r="D9" t="n">
-        <v>240.285</v>
+        <v>191.898</v>
       </c>
     </row>
     <row r="10">
@@ -3152,10 +3152,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4039280414581299</v>
+        <v>0.4246881008148193</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -3168,10 +3168,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4151089191436768</v>
+        <v>0.4220433235168457</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -3184,10 +3184,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.333170890808105</v>
+        <v>1.228461027145386</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -3200,10 +3200,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.296083927154541</v>
+        <v>1.330044031143188</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -3216,10 +3216,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4289112091064453</v>
+        <v>0.4222090244293213</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="15">
@@ -3232,10 +3232,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4294209480285645</v>
+        <v>0.4292700290679932</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="16">
@@ -3248,10 +3248,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.223957061767578</v>
+        <v>1.191647052764893</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="17">
@@ -3264,10 +3264,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.303982257843018</v>
+        <v>1.295160055160522</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
     <row r="18">
@@ -3280,10 +3280,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.410233736038208</v>
+        <v>0.4195907115936279</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.586</v>
       </c>
     </row>
     <row r="19">
@@ -3296,10 +3296,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4093008041381836</v>
+        <v>0.4256100654602051</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>500.158</v>
       </c>
     </row>
     <row r="20">
@@ -3312,10 +3312,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.219687938690186</v>
+        <v>1.316053867340088</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.757</v>
       </c>
     </row>
     <row r="21">
@@ -3328,10 +3328,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.310675144195557</v>
+        <v>1.302210092544556</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>577.2</v>
       </c>
     </row>
     <row r="22">
@@ -3344,10 +3344,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3978123664855957</v>
+        <v>0.4299402236938477</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -3360,10 +3360,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4342498779296875</v>
+        <v>0.4122781753540039</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -3376,10 +3376,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.258166074752808</v>
+        <v>1.15935206413269</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -3392,10 +3392,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.312915802001953</v>
+        <v>1.280107021331787</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -3449,10 +3449,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4201970100402832</v>
+        <v>0.4330627918243408</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -3465,10 +3465,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.428175687789917</v>
+        <v>0.4325850009918213</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -3481,10 +3481,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.269767045974731</v>
+        <v>1.324167013168335</v>
       </c>
       <c r="D4" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="5">
@@ -3497,10 +3497,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.346947908401489</v>
+        <v>1.301417827606201</v>
       </c>
       <c r="D5" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="6">
@@ -3513,10 +3513,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4036462306976318</v>
+        <v>0.5456697940826416</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -3529,10 +3529,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4187180995941162</v>
+        <v>0.4413292407989502</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -3545,10 +3545,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.290359020233154</v>
+        <v>1.360296964645386</v>
       </c>
       <c r="D8" t="n">
-        <v>187.827</v>
+        <v>160.943</v>
       </c>
     </row>
     <row r="9">
@@ -3561,10 +3561,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.239004850387573</v>
+        <v>1.346946001052856</v>
       </c>
       <c r="D9" t="n">
-        <v>240.285</v>
+        <v>191.898</v>
       </c>
     </row>
     <row r="10">
@@ -3577,10 +3577,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4323811531066895</v>
+        <v>0.5465898513793945</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -3593,10 +3593,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4271719455718994</v>
+        <v>0.4302599430084229</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -3609,10 +3609,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.449867010116577</v>
+        <v>1.339432001113892</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -3625,10 +3625,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.206771850585938</v>
+        <v>1.372756958007812</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -3641,10 +3641,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4388449192047119</v>
+        <v>0.4346261024475098</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="15">
@@ -3657,10 +3657,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4162750244140625</v>
+        <v>0.4267578125</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="16">
@@ -3673,10 +3673,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.331089973449707</v>
+        <v>1.305576801300049</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="17">
@@ -3689,10 +3689,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.212060213088989</v>
+        <v>1.234014987945557</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
     <row r="18">
@@ -3705,10 +3705,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4326269626617432</v>
+        <v>0.4347262382507324</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.586</v>
       </c>
     </row>
     <row r="19">
@@ -3721,10 +3721,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4465820789337158</v>
+        <v>0.4482278823852539</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>500.158</v>
       </c>
     </row>
     <row r="20">
@@ -3737,10 +3737,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.078880071640015</v>
+        <v>1.266205072402954</v>
       </c>
       <c r="D20" t="n">
-        <v>116.505</v>
+        <v>162.757</v>
       </c>
     </row>
     <row r="21">
@@ -3753,10 +3753,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.250159740447998</v>
+        <v>1.275140762329102</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>577.2</v>
       </c>
     </row>
     <row r="22">
@@ -3769,10 +3769,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4026391506195068</v>
+        <v>0.4384210109710693</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -3785,10 +3785,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4182226657867432</v>
+        <v>0.4391679763793945</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -3801,10 +3801,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.26949405670166</v>
+        <v>1.218836069107056</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -3817,10 +3817,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.240515947341919</v>
+        <v>1.35765814781189</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -3874,10 +3874,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4184236526489258</v>
+        <v>0.4223051071166992</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -3890,10 +3890,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4166991710662842</v>
+        <v>0.4414646625518799</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -3906,10 +3906,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.268958806991577</v>
+        <v>1.334400177001953</v>
       </c>
       <c r="D4" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="5">
@@ -3922,10 +3922,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.217216014862061</v>
+        <v>1.318860769271851</v>
       </c>
       <c r="D5" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="6">
@@ -3938,10 +3938,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4228231906890869</v>
+        <v>0.4352800846099854</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -3954,10 +3954,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4118912220001221</v>
+        <v>0.5120739936828613</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -3970,10 +3970,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.37773609161377</v>
+        <v>1.194139957427979</v>
       </c>
       <c r="D8" t="n">
-        <v>187.827</v>
+        <v>160.943</v>
       </c>
     </row>
     <row r="9">
@@ -3986,10 +3986,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.348679065704346</v>
+        <v>1.365390062332153</v>
       </c>
       <c r="D9" t="n">
-        <v>240.285</v>
+        <v>191.898</v>
       </c>
     </row>
     <row r="10">
@@ -4002,10 +4002,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4280738830566406</v>
+        <v>0.4300107955932617</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -4018,10 +4018,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4375619888305664</v>
+        <v>0.4479191303253174</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -4034,10 +4034,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.329545021057129</v>
+        <v>1.288460969924927</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -4050,10 +4050,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.323448181152344</v>
+        <v>1.347359180450439</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -4066,10 +4066,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4253799915313721</v>
+        <v>0.4198188781738281</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="15">
@@ -4082,10 +4082,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4165000915527344</v>
+        <v>0.4365229606628418</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="16">
@@ -4098,10 +4098,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.361194849014282</v>
+        <v>1.356425285339355</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="17">
@@ -4114,10 +4114,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.313262224197388</v>
+        <v>1.329178094863892</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
     <row r="18">
@@ -4130,10 +4130,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4108438491821289</v>
+        <v>0.4095396995544434</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.586</v>
       </c>
     </row>
     <row r="19">
@@ -4146,10 +4146,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4902238845825195</v>
+        <v>0.4092857837677002</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>500.158</v>
       </c>
     </row>
     <row r="20">
@@ -4162,10 +4162,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.18738317489624</v>
+        <v>1.256242275238037</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.757</v>
       </c>
     </row>
     <row r="21">
@@ -4178,10 +4178,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.320446014404297</v>
+        <v>1.361637115478516</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>577.2</v>
       </c>
     </row>
     <row r="22">
@@ -4194,10 +4194,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4302051067352295</v>
+        <v>0.4324588775634766</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -4210,10 +4210,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4180920124053955</v>
+        <v>0.4788012504577637</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -4226,10 +4226,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.303102970123291</v>
+        <v>1.278326034545898</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -4242,10 +4242,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.257939100265503</v>
+        <v>1.38197922706604</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>
@@ -4299,10 +4299,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4026570320129395</v>
+        <v>0.4181718826293945</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -4315,10 +4315,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.430185079574585</v>
+        <v>0.4141280651092529</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -4331,10 +4331,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.245215892791748</v>
+        <v>1.32697606086731</v>
       </c>
       <c r="D4" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="5">
@@ -4347,10 +4347,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.30101203918457</v>
+        <v>1.265023946762085</v>
       </c>
       <c r="D5" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="6">
@@ -4363,10 +4363,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4266390800476074</v>
+        <v>0.4496681690216064</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -4379,10 +4379,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4119946956634521</v>
+        <v>0.4299960136413574</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -4395,10 +4395,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.226218223571777</v>
+        <v>1.345952033996582</v>
       </c>
       <c r="D8" t="n">
-        <v>187.827</v>
+        <v>160.943</v>
       </c>
     </row>
     <row r="9">
@@ -4411,10 +4411,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.417942047119141</v>
+        <v>1.287904024124146</v>
       </c>
       <c r="D9" t="n">
-        <v>240.285</v>
+        <v>191.898</v>
       </c>
     </row>
     <row r="10">
@@ -4427,10 +4427,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4079821109771729</v>
+        <v>0.4267849922180176</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -4443,10 +4443,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.431760311126709</v>
+        <v>0.4245321750640869</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -4459,10 +4459,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.278487920761108</v>
+        <v>1.309316873550415</v>
       </c>
       <c r="D12" t="n">
-        <v>189.782</v>
+        <v>162.898</v>
       </c>
     </row>
     <row r="13">
@@ -4475,10 +4475,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.271088123321533</v>
+        <v>1.213913917541504</v>
       </c>
       <c r="D13" t="n">
-        <v>242.24</v>
+        <v>193.853</v>
       </c>
     </row>
     <row r="14">
@@ -4491,10 +4491,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4278779029846191</v>
+        <v>0.4307610988616943</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="15">
@@ -4507,10 +4507,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4391732215881348</v>
+        <v>0.4311232566833496</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="16">
@@ -4523,10 +4523,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.309025049209595</v>
+        <v>1.180791854858398</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="17">
@@ -4539,10 +4539,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.267611742019653</v>
+        <v>1.286144018173218</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
     <row r="18">
@@ -4555,10 +4555,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4500699043273926</v>
+        <v>0.4219310283660889</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.586</v>
       </c>
     </row>
     <row r="19">
@@ -4571,10 +4571,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4576098918914795</v>
+        <v>0.4340479373931885</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>500.158</v>
       </c>
     </row>
     <row r="20">
@@ -4587,10 +4587,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.218625068664551</v>
+        <v>1.316548109054565</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.757</v>
       </c>
     </row>
     <row r="21">
@@ -4603,10 +4603,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.265795946121216</v>
+        <v>1.453736066818237</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>577.2</v>
       </c>
     </row>
     <row r="22">
@@ -4619,10 +4619,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4225630760192871</v>
+        <v>0.4148149490356445</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.541</v>
       </c>
     </row>
     <row r="23">
@@ -4635,10 +4635,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4121253490447998</v>
+        <v>0.4209668636322021</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>502.113</v>
       </c>
     </row>
     <row r="24">
@@ -4651,10 +4651,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.298558950424194</v>
+        <v>1.37499213218689</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.712</v>
       </c>
     </row>
     <row r="25">
@@ -4667,10 +4667,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.244198083877563</v>
+        <v>1.361143827438354</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>579.155</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_chrome_test_results.xlsx
+++ b/client/test_results/unfiltered_chrome_test_results.xlsx
@@ -7,7 +7,16 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="run_10" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -465,10 +474,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4447422027587891</v>
+        <v>0.4290440082550049</v>
       </c>
       <c r="D2" t="n">
-        <v>124.462</v>
+        <v>126.634</v>
       </c>
     </row>
     <row r="3">
@@ -481,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4534471035003662</v>
+        <v>0.4303188323974609</v>
       </c>
       <c r="D3" t="n">
-        <v>164.363</v>
+        <v>166.535</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +506,10 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.269827127456665</v>
+        <v>1.385313749313354</v>
       </c>
       <c r="D4" t="n">
-        <v>189.106</v>
+        <v>191.278</v>
       </c>
     </row>
     <row r="5">
@@ -513,10 +522,10 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.352491855621338</v>
+        <v>1.35481333732605</v>
       </c>
       <c r="D5" t="n">
-        <v>241.564</v>
+        <v>243.736</v>
       </c>
     </row>
     <row r="6">
@@ -529,10 +538,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4434051513671875</v>
+        <v>0.4260139465332031</v>
       </c>
       <c r="D6" t="n">
-        <v>121.011</v>
+        <v>123.183</v>
       </c>
     </row>
     <row r="7">
@@ -545,10 +554,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4724211692810059</v>
+        <v>0.4457311630249023</v>
       </c>
       <c r="D7" t="n">
-        <v>160.912</v>
+        <v>163.084</v>
       </c>
     </row>
     <row r="8">
@@ -561,10 +570,10 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.28935980796814</v>
+        <v>1.29738974571228</v>
       </c>
       <c r="D8" t="n">
-        <v>185.655</v>
+        <v>187.827</v>
       </c>
     </row>
     <row r="9">
@@ -577,10 +586,10 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.358805894851685</v>
+        <v>1.345324993133545</v>
       </c>
       <c r="D9" t="n">
-        <v>238.113</v>
+        <v>240.285</v>
       </c>
     </row>
     <row r="10">
@@ -593,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.441784143447876</v>
+        <v>0.4407670497894287</v>
       </c>
       <c r="D10" t="n">
-        <v>124.462</v>
+        <v>126.634</v>
       </c>
     </row>
     <row r="11">
@@ -609,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4747200012207031</v>
+        <v>0.4327578544616699</v>
       </c>
       <c r="D11" t="n">
-        <v>164.363</v>
+        <v>166.535</v>
       </c>
     </row>
     <row r="12">
@@ -625,10 +634,10 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.341850996017456</v>
+        <v>1.385295152664185</v>
       </c>
       <c r="D12" t="n">
-        <v>189.106</v>
+        <v>191.278</v>
       </c>
     </row>
     <row r="13">
@@ -641,10 +650,10 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.553781986236572</v>
+        <v>1.349318981170654</v>
       </c>
       <c r="D13" t="n">
-        <v>241.564</v>
+        <v>243.736</v>
       </c>
     </row>
     <row r="14">
@@ -657,10 +666,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4417808055877686</v>
+        <v>0.5372700691223145</v>
       </c>
       <c r="D14" t="n">
-        <v>125.106</v>
+        <v>127.278</v>
       </c>
     </row>
     <row r="15">
@@ -673,10 +682,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4422171115875244</v>
+        <v>0.4478981494903564</v>
       </c>
       <c r="D15" t="n">
-        <v>943.059</v>
+        <v>945.231</v>
       </c>
     </row>
     <row r="16">
@@ -689,10 +698,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.177206993103027</v>
+        <v>1.350767135620117</v>
       </c>
       <c r="D16" t="n">
-        <v>174.565</v>
+        <v>176.737</v>
       </c>
     </row>
     <row r="17">
@@ -705,10 +714,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.402122020721436</v>
+        <v>1.387064933776855</v>
       </c>
       <c r="D17" t="n">
-        <v>672.716</v>
+        <v>674.888</v>
       </c>
     </row>
     <row r="18">
@@ -721,10 +730,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4394791126251221</v>
+        <v>0.4210891723632812</v>
       </c>
       <c r="D18" t="n">
-        <v>121.655</v>
+        <v>123.827</v>
       </c>
     </row>
     <row r="19">
@@ -737,10 +746,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4361410140991211</v>
+        <v>0.4140040874481201</v>
       </c>
       <c r="D19" t="n">
-        <v>939.6079999999999</v>
+        <v>941.78</v>
       </c>
     </row>
     <row r="20">
@@ -753,10 +762,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.39478611946106</v>
+        <v>1.159586906433105</v>
       </c>
       <c r="D20" t="n">
-        <v>171.114</v>
+        <v>173.286</v>
       </c>
     </row>
     <row r="21">
@@ -769,10 +778,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.41057014465332</v>
+        <v>1.357865810394287</v>
       </c>
       <c r="D21" t="n">
-        <v>669.265</v>
+        <v>671.437</v>
       </c>
     </row>
     <row r="22">
@@ -785,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4703962802886963</v>
+        <v>0.4411280155181885</v>
       </c>
       <c r="D22" t="n">
-        <v>125.106</v>
+        <v>127.278</v>
       </c>
     </row>
     <row r="23">
@@ -801,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4541821479797363</v>
+        <v>0.4420459270477295</v>
       </c>
       <c r="D23" t="n">
-        <v>943.059</v>
+        <v>945.231</v>
       </c>
     </row>
     <row r="24">
@@ -817,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.359807968139648</v>
+        <v>1.400817155838013</v>
       </c>
       <c r="D24" t="n">
-        <v>174.565</v>
+        <v>176.737</v>
       </c>
     </row>
     <row r="25">
@@ -833,10 +842,3835 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.343481063842773</v>
+        <v>1.382707357406616</v>
       </c>
       <c r="D25" t="n">
-        <v>672.716</v>
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4411098957061768</v>
+      </c>
+      <c r="D2" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4529478549957275</v>
+      </c>
+      <c r="D3" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.056159973144531</v>
+      </c>
+      <c r="D4" t="n">
+        <v>114.118</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.371397972106934</v>
+      </c>
+      <c r="D5" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4383480548858643</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4362659454345703</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.461934089660645</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.351880788803101</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4563031196594238</v>
+      </c>
+      <c r="D10" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4398200511932373</v>
+      </c>
+      <c r="D11" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.292103052139282</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.396697044372559</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4261140823364258</v>
+      </c>
+      <c r="D14" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4639818668365479</v>
+      </c>
+      <c r="D15" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.325653314590454</v>
+      </c>
+      <c r="D16" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.437702894210815</v>
+      </c>
+      <c r="D17" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4311981201171875</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.827</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4420862197875977</v>
+      </c>
+      <c r="D19" t="n">
+        <v>941.78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.406269073486328</v>
+      </c>
+      <c r="D20" t="n">
+        <v>173.286</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.314553260803223</v>
+      </c>
+      <c r="D21" t="n">
+        <v>671.437</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4205338954925537</v>
+      </c>
+      <c r="D22" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4192280769348145</v>
+      </c>
+      <c r="D23" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.464296817779541</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.26021409034729</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.424889087677002</v>
+      </c>
+      <c r="D2" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4330897331237793</v>
+      </c>
+      <c r="D3" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.494230031967163</v>
+      </c>
+      <c r="D4" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.439144134521484</v>
+      </c>
+      <c r="D5" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.452275276184082</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4216752052307129</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.480086088180542</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.347876071929932</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5550358295440674</v>
+      </c>
+      <c r="D10" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4323079586029053</v>
+      </c>
+      <c r="D11" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.403668880462646</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.418060064315796</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.42718505859375</v>
+      </c>
+      <c r="D14" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4181709289550781</v>
+      </c>
+      <c r="D15" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.130665063858032</v>
+      </c>
+      <c r="D16" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.437777996063232</v>
+      </c>
+      <c r="D17" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4427340030670166</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.827</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4294230937957764</v>
+      </c>
+      <c r="D19" t="n">
+        <v>941.78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.406328678131104</v>
+      </c>
+      <c r="D20" t="n">
+        <v>173.286</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.359474897384644</v>
+      </c>
+      <c r="D21" t="n">
+        <v>671.437</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4249441623687744</v>
+      </c>
+      <c r="D22" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5539147853851318</v>
+      </c>
+      <c r="D23" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.430112838745117</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.368545055389404</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4541749954223633</v>
+      </c>
+      <c r="D2" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4312629699707031</v>
+      </c>
+      <c r="D3" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.49167013168335</v>
+      </c>
+      <c r="D4" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.306937217712402</v>
+      </c>
+      <c r="D5" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4309308528900146</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4550681114196777</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.372984886169434</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.378939867019653</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4186592102050781</v>
+      </c>
+      <c r="D10" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4242851734161377</v>
+      </c>
+      <c r="D11" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.284767150878906</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.359761238098145</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4326620101928711</v>
+      </c>
+      <c r="D14" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4474701881408691</v>
+      </c>
+      <c r="D15" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.076338291168213</v>
+      </c>
+      <c r="D16" t="n">
+        <v>99.577</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.821976184844971</v>
+      </c>
+      <c r="D17" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.418921947479248</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.827</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4180071353912354</v>
+      </c>
+      <c r="D19" t="n">
+        <v>941.78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.30420970916748</v>
+      </c>
+      <c r="D20" t="n">
+        <v>173.286</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.266776084899902</v>
+      </c>
+      <c r="D21" t="n">
+        <v>671.437</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4158749580383301</v>
+      </c>
+      <c r="D22" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.429832935333252</v>
+      </c>
+      <c r="D23" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.339226007461548</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.401987075805664</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4266841411590576</v>
+      </c>
+      <c r="D2" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4196310043334961</v>
+      </c>
+      <c r="D3" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.36359977722168</v>
+      </c>
+      <c r="D4" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.414823770523071</v>
+      </c>
+      <c r="D5" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4268002510070801</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4294600486755371</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.565091848373413</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.419927835464478</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4354331493377686</v>
+      </c>
+      <c r="D10" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.441370964050293</v>
+      </c>
+      <c r="D11" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.445162057876587</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.427310943603516</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4290351867675781</v>
+      </c>
+      <c r="D14" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4291348457336426</v>
+      </c>
+      <c r="D15" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.403361797332764</v>
+      </c>
+      <c r="D16" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.368063926696777</v>
+      </c>
+      <c r="D17" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4170188903808594</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.827</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4316082000732422</v>
+      </c>
+      <c r="D19" t="n">
+        <v>941.78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.407843112945557</v>
+      </c>
+      <c r="D20" t="n">
+        <v>173.286</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.41710901260376</v>
+      </c>
+      <c r="D21" t="n">
+        <v>671.437</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4178428649902344</v>
+      </c>
+      <c r="D22" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4240841865539551</v>
+      </c>
+      <c r="D23" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.462255001068115</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.307190895080566</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4157829284667969</v>
+      </c>
+      <c r="D2" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.429732084274292</v>
+      </c>
+      <c r="D3" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.247097015380859</v>
+      </c>
+      <c r="D4" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.383049964904785</v>
+      </c>
+      <c r="D5" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4145829677581787</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.427058219909668</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.414952993392944</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.392062902450562</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4231293201446533</v>
+      </c>
+      <c r="D10" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4226908683776855</v>
+      </c>
+      <c r="D11" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.439316272735596</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.443693161010742</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.429520845413208</v>
+      </c>
+      <c r="D14" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4220569133758545</v>
+      </c>
+      <c r="D15" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.391301155090332</v>
+      </c>
+      <c r="D16" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.405993938446045</v>
+      </c>
+      <c r="D17" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4606189727783203</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.827</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4364402294158936</v>
+      </c>
+      <c r="D19" t="n">
+        <v>941.78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.212907075881958</v>
+      </c>
+      <c r="D20" t="n">
+        <v>173.286</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.478289842605591</v>
+      </c>
+      <c r="D21" t="n">
+        <v>671.437</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4355180263519287</v>
+      </c>
+      <c r="D22" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4287092685699463</v>
+      </c>
+      <c r="D23" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.450764179229736</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.518086194992065</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4800980091094971</v>
+      </c>
+      <c r="D2" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4272921085357666</v>
+      </c>
+      <c r="D3" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.384524822235107</v>
+      </c>
+      <c r="D4" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.395272970199585</v>
+      </c>
+      <c r="D5" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4342019557952881</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4213659763336182</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.401400089263916</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.370995759963989</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4207508563995361</v>
+      </c>
+      <c r="D10" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4325120449066162</v>
+      </c>
+      <c r="D11" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.37182092666626</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.377700090408325</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4245672225952148</v>
+      </c>
+      <c r="D14" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4340379238128662</v>
+      </c>
+      <c r="D15" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.178386926651001</v>
+      </c>
+      <c r="D16" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.575559139251709</v>
+      </c>
+      <c r="D17" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6386888027191162</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.827</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4413440227508545</v>
+      </c>
+      <c r="D19" t="n">
+        <v>941.78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.356330871582031</v>
+      </c>
+      <c r="D20" t="n">
+        <v>173.286</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.367527961730957</v>
+      </c>
+      <c r="D21" t="n">
+        <v>671.437</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4389369487762451</v>
+      </c>
+      <c r="D22" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4200491905212402</v>
+      </c>
+      <c r="D23" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.415786981582642</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.286249160766602</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4353351593017578</v>
+      </c>
+      <c r="D2" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5065321922302246</v>
+      </c>
+      <c r="D3" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.398555755615234</v>
+      </c>
+      <c r="D4" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.435355186462402</v>
+      </c>
+      <c r="D5" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4133009910583496</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4157848358154297</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.385255098342896</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.3890540599823</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4316501617431641</v>
+      </c>
+      <c r="D10" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4490640163421631</v>
+      </c>
+      <c r="D11" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.370198011398315</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.388684034347534</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4222207069396973</v>
+      </c>
+      <c r="D14" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4376778602600098</v>
+      </c>
+      <c r="D15" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.217592000961304</v>
+      </c>
+      <c r="D16" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.374289989471436</v>
+      </c>
+      <c r="D17" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4299359321594238</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.827</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5434648990631104</v>
+      </c>
+      <c r="D19" t="n">
+        <v>941.78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.392197132110596</v>
+      </c>
+      <c r="D20" t="n">
+        <v>173.286</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.414840221405029</v>
+      </c>
+      <c r="D21" t="n">
+        <v>671.437</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.422245979309082</v>
+      </c>
+      <c r="D22" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4218919277191162</v>
+      </c>
+      <c r="D23" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.392714023590088</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.311158180236816</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4315009117126465</v>
+      </c>
+      <c r="D2" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.5282351970672607</v>
+      </c>
+      <c r="D3" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.368777275085449</v>
+      </c>
+      <c r="D4" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.33754301071167</v>
+      </c>
+      <c r="D5" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4277760982513428</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4704890251159668</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.349491119384766</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.393079996109009</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4220268726348877</v>
+      </c>
+      <c r="D10" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4244732856750488</v>
+      </c>
+      <c r="D11" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.337669849395752</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.398225069046021</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4291930198669434</v>
+      </c>
+      <c r="D14" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5423307418823242</v>
+      </c>
+      <c r="D15" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.343941926956177</v>
+      </c>
+      <c r="D16" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.264560222625732</v>
+      </c>
+      <c r="D17" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7405400276184082</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.827</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4385221004486084</v>
+      </c>
+      <c r="D19" t="n">
+        <v>941.78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.381693363189697</v>
+      </c>
+      <c r="D20" t="n">
+        <v>173.286</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.393660068511963</v>
+      </c>
+      <c r="D21" t="n">
+        <v>671.437</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4293332099914551</v>
+      </c>
+      <c r="D22" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4159281253814697</v>
+      </c>
+      <c r="D23" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.350479125976562</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.375195026397705</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>website name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>unfiltered percentage</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>access time</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>size</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4265899658203125</v>
+      </c>
+      <c r="D2" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>evilsig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.4303429126739502</v>
+      </c>
+      <c r="D3" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.33659291267395</v>
+      </c>
+      <c r="D4" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>evilsig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.403063774108887</v>
+      </c>
+      <c r="D5" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.4204800128936768</v>
+      </c>
+      <c r="D6" t="n">
+        <v>123.183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>nosig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4273190498352051</v>
+      </c>
+      <c r="D7" t="n">
+        <v>163.084</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.30473518371582</v>
+      </c>
+      <c r="D8" t="n">
+        <v>187.827</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>nosig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.370445728302002</v>
+      </c>
+      <c r="D9" t="n">
+        <v>240.285</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.438878059387207</v>
+      </c>
+      <c r="D10" t="n">
+        <v>126.634</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sig_clean_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5232739448547363</v>
+      </c>
+      <c r="D11" t="n">
+        <v>166.535</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sig_clean_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.368344068527222</v>
+      </c>
+      <c r="D12" t="n">
+        <v>191.278</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sig_clean_external_png_index</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.186547756195068</v>
+      </c>
+      <c r="D13" t="n">
+        <v>243.736</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>100</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4349830150604248</v>
+      </c>
+      <c r="D14" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>evilsig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>100</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4241418838500977</v>
+      </c>
+      <c r="D15" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>100</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.386417865753174</v>
+      </c>
+      <c r="D16" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>evilsig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>100</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.387444972991943</v>
+      </c>
+      <c r="D17" t="n">
+        <v>674.888</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>100</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.416773796081543</v>
+      </c>
+      <c r="D18" t="n">
+        <v>123.827</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>nosig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.4344689846038818</v>
+      </c>
+      <c r="D19" t="n">
+        <v>941.78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>100</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.439778089523315</v>
+      </c>
+      <c r="D20" t="n">
+        <v>173.286</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>nosig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>100</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.403050899505615</v>
+      </c>
+      <c r="D21" t="n">
+        <v>671.437</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_jpg_index</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4201419353485107</v>
+      </c>
+      <c r="D22" t="n">
+        <v>127.278</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>sig_stego_internal_png_index</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>100</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.4640371799468994</v>
+      </c>
+      <c r="D23" t="n">
+        <v>945.231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>sig_stego_external_jpg_index</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>100</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.21054482460022</v>
+      </c>
+      <c r="D24" t="n">
+        <v>176.737</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>sig_stego_external_png_index</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>100</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.430497169494629</v>
+      </c>
+      <c r="D25" t="n">
+        <v>674.888</v>
       </c>
     </row>
   </sheetData>

--- a/client/test_results/unfiltered_chrome_test_results.xlsx
+++ b/client/test_results/unfiltered_chrome_test_results.xlsx
@@ -474,7 +474,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4336411952972412</v>
+        <v>0.433413028717041</v>
       </c>
       <c r="D2" t="n">
         <v>125.138</v>
@@ -490,7 +490,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4237430095672607</v>
+        <v>0.559438943862915</v>
       </c>
       <c r="D3" t="n">
         <v>165.039</v>
@@ -506,7 +506,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.295307159423828</v>
+        <v>1.328495025634766</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -522,7 +522,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.307204008102417</v>
+        <v>1.344317197799683</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -538,7 +538,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4539780616760254</v>
+        <v>0.4167301654815674</v>
       </c>
       <c r="D6" t="n">
         <v>123.183</v>
@@ -554,7 +554,7 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5646016597747803</v>
+        <v>0.4577810764312744</v>
       </c>
       <c r="D7" t="n">
         <v>163.084</v>
@@ -570,7 +570,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.439555168151855</v>
+        <v>1.319342136383057</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -586,7 +586,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.320673942565918</v>
+        <v>1.267824172973633</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -602,7 +602,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4278099536895752</v>
+        <v>0.4376678466796875</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -618,7 +618,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4167590141296387</v>
+        <v>0.4409170150756836</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -634,7 +634,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.426414966583252</v>
+        <v>1.341423988342285</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -650,7 +650,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.434534072875977</v>
+        <v>1.35115385055542</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -666,7 +666,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4559369087219238</v>
+        <v>0.4266695976257324</v>
       </c>
       <c r="D14" t="n">
         <v>125.872</v>
@@ -682,7 +682,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.427778959274292</v>
+        <v>0.5006909370422363</v>
       </c>
       <c r="D15" t="n">
         <v>872.102</v>
@@ -698,7 +698,7 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.385907173156738</v>
+        <v>1.103294134140015</v>
       </c>
       <c r="D16" t="n">
         <v>195.62</v>
@@ -714,7 +714,7 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.486429929733276</v>
+        <v>1.434691905975342</v>
       </c>
       <c r="D17" t="n">
         <v>949.144</v>
@@ -730,7 +730,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4187681674957275</v>
+        <v>0.4469199180603027</v>
       </c>
       <c r="D18" t="n">
         <v>123.917</v>
@@ -746,7 +746,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4307446479797363</v>
+        <v>0.4478809833526611</v>
       </c>
       <c r="D19" t="n">
         <v>870.147</v>
@@ -762,7 +762,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.414762020111084</v>
+        <v>1.179348945617676</v>
       </c>
       <c r="D20" t="n">
         <v>193.665</v>
@@ -778,7 +778,7 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.512159824371338</v>
+        <v>1.408799171447754</v>
       </c>
       <c r="D21" t="n">
         <v>947.189</v>
@@ -794,7 +794,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4299969673156738</v>
+        <v>0.4301021099090576</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -810,7 +810,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5375311374664307</v>
+        <v>0.5431020259857178</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -826,7 +826,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.232758760452271</v>
+        <v>1.371352910995483</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -842,7 +842,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.578207015991211</v>
+        <v>1.410183906555176</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -899,7 +899,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4454329013824463</v>
+        <v>0.4227917194366455</v>
       </c>
       <c r="D2" t="n">
         <v>125.138</v>
@@ -915,7 +915,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4520161151885986</v>
+        <v>0.4415650367736816</v>
       </c>
       <c r="D3" t="n">
         <v>165.039</v>
@@ -931,7 +931,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.456701278686523</v>
+        <v>1.3002769947052</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -947,7 +947,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.417154788970947</v>
+        <v>1.364455938339233</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -963,7 +963,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4344718456268311</v>
+        <v>0.4254059791564941</v>
       </c>
       <c r="D6" t="n">
         <v>123.183</v>
@@ -979,7 +979,7 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4214398860931396</v>
+        <v>0.4330849647521973</v>
       </c>
       <c r="D7" t="n">
         <v>163.084</v>
@@ -995,7 +995,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.419983863830566</v>
+        <v>1.257610082626343</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -1011,7 +1011,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.309377908706665</v>
+        <v>1.286313056945801</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -1027,7 +1027,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4268717765808105</v>
+        <v>0.4329400062561035</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -1043,7 +1043,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4505650997161865</v>
+        <v>0.4419717788696289</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -1059,7 +1059,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.395316123962402</v>
+        <v>1.360085010528564</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -1075,7 +1075,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.503581047058105</v>
+        <v>1.326303005218506</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -1091,7 +1091,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.431908130645752</v>
+        <v>0.4367380142211914</v>
       </c>
       <c r="D14" t="n">
         <v>125.872</v>
@@ -1107,7 +1107,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4390189647674561</v>
+        <v>0.4277718067169189</v>
       </c>
       <c r="D15" t="n">
         <v>872.102</v>
@@ -1123,7 +1123,7 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.450838088989258</v>
+        <v>1.236920833587646</v>
       </c>
       <c r="D16" t="n">
         <v>195.62</v>
@@ -1139,7 +1139,7 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.411012887954712</v>
+        <v>1.475485801696777</v>
       </c>
       <c r="D17" t="n">
         <v>949.144</v>
@@ -1155,7 +1155,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4280788898468018</v>
+        <v>0.4540889263153076</v>
       </c>
       <c r="D18" t="n">
         <v>123.917</v>
@@ -1171,7 +1171,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5617499351501465</v>
+        <v>0.4271998405456543</v>
       </c>
       <c r="D19" t="n">
         <v>870.147</v>
@@ -1187,7 +1187,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.475285053253174</v>
+        <v>1.319943904876709</v>
       </c>
       <c r="D20" t="n">
         <v>193.665</v>
@@ -1203,7 +1203,7 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.525076866149902</v>
+        <v>1.408763885498047</v>
       </c>
       <c r="D21" t="n">
         <v>947.189</v>
@@ -1219,7 +1219,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4461297988891602</v>
+        <v>0.415471076965332</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -1235,7 +1235,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4439969062805176</v>
+        <v>0.453484058380127</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -1251,7 +1251,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.497833013534546</v>
+        <v>1.369593143463135</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -1267,7 +1267,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.443034887313843</v>
+        <v>1.47266411781311</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -1324,7 +1324,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4362666606903076</v>
+        <v>0.445688009262085</v>
       </c>
       <c r="D2" t="n">
         <v>125.138</v>
@@ -1340,7 +1340,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4224262237548828</v>
+        <v>0.4235270023345947</v>
       </c>
       <c r="D3" t="n">
         <v>165.039</v>
@@ -1356,7 +1356,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.462757110595703</v>
+        <v>1.370718955993652</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -1372,7 +1372,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.393417119979858</v>
+        <v>1.338606834411621</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -1388,7 +1388,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4284842014312744</v>
+        <v>0.4369001388549805</v>
       </c>
       <c r="D6" t="n">
         <v>123.183</v>
@@ -1404,7 +1404,7 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4399030208587646</v>
+        <v>0.571742057800293</v>
       </c>
       <c r="D7" t="n">
         <v>163.084</v>
@@ -1420,7 +1420,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.473625659942627</v>
+        <v>1.358943939208984</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -1436,7 +1436,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.181690216064453</v>
+        <v>1.268490076065063</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -1452,7 +1452,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4365661144256592</v>
+        <v>0.4658739566802979</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -1468,7 +1468,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4317772388458252</v>
+        <v>0.4274082183837891</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -1484,7 +1484,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.445382833480835</v>
+        <v>1.317516803741455</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -1500,7 +1500,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.454380750656128</v>
+        <v>1.379136800765991</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -1516,7 +1516,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4161810874938965</v>
+        <v>0.4541990756988525</v>
       </c>
       <c r="D14" t="n">
         <v>125.872</v>
@@ -1532,7 +1532,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5004298686981201</v>
+        <v>0.4501330852508545</v>
       </c>
       <c r="D15" t="n">
         <v>872.102</v>
@@ -1548,7 +1548,7 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.398687839508057</v>
+        <v>1.161070108413696</v>
       </c>
       <c r="D16" t="n">
         <v>195.62</v>
@@ -1564,7 +1564,7 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.398847103118896</v>
+        <v>1.542342901229858</v>
       </c>
       <c r="D17" t="n">
         <v>949.144</v>
@@ -1580,7 +1580,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4250900745391846</v>
+        <v>0.4202320575714111</v>
       </c>
       <c r="D18" t="n">
         <v>123.917</v>
@@ -1596,7 +1596,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4361817836761475</v>
+        <v>0.4349958896636963</v>
       </c>
       <c r="D19" t="n">
         <v>870.147</v>
@@ -1612,7 +1612,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.452461004257202</v>
+        <v>1.343907833099365</v>
       </c>
       <c r="D20" t="n">
         <v>193.665</v>
@@ -1628,7 +1628,7 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.547031164169312</v>
+        <v>1.414935111999512</v>
       </c>
       <c r="D21" t="n">
         <v>947.189</v>
@@ -1644,7 +1644,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4316818714141846</v>
+        <v>0.4326608180999756</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -1660,7 +1660,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4963867664337158</v>
+        <v>0.4354619979858398</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -1676,7 +1676,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.453532934188843</v>
+        <v>1.386577844619751</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -1692,7 +1692,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.703470706939697</v>
+        <v>1.330371141433716</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -1749,7 +1749,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4194247722625732</v>
+        <v>0.4364852905273438</v>
       </c>
       <c r="D2" t="n">
         <v>125.138</v>
@@ -1765,7 +1765,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4344680309295654</v>
+        <v>0.4214060306549072</v>
       </c>
       <c r="D3" t="n">
         <v>165.039</v>
@@ -1781,7 +1781,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.39838981628418</v>
+        <v>1.275577783584595</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -1797,7 +1797,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.420879125595093</v>
+        <v>1.201501846313477</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -1813,7 +1813,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4091639518737793</v>
+        <v>0.4445590972900391</v>
       </c>
       <c r="D6" t="n">
         <v>123.183</v>
@@ -1829,7 +1829,7 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4455668926239014</v>
+        <v>0.4289960861206055</v>
       </c>
       <c r="D7" t="n">
         <v>163.084</v>
@@ -1845,7 +1845,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.364426136016846</v>
+        <v>1.324172019958496</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -1861,7 +1861,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.232213973999023</v>
+        <v>1.291039943695068</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -1877,7 +1877,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4241068363189697</v>
+        <v>0.4144260883331299</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -1893,7 +1893,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4275820255279541</v>
+        <v>0.4318008422851562</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -1909,7 +1909,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.34567403793335</v>
+        <v>1.317101001739502</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -1925,7 +1925,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.44870138168335</v>
+        <v>1.341270685195923</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -1941,7 +1941,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4339849948883057</v>
+        <v>0.4173030853271484</v>
       </c>
       <c r="D14" t="n">
         <v>125.872</v>
@@ -1957,7 +1957,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5407347679138184</v>
+        <v>0.5813820362091064</v>
       </c>
       <c r="D15" t="n">
         <v>872.102</v>
@@ -1973,7 +1973,7 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.432229042053223</v>
+        <v>1.271846055984497</v>
       </c>
       <c r="D16" t="n">
         <v>195.62</v>
@@ -1989,7 +1989,7 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.514810085296631</v>
+        <v>1.432538270950317</v>
       </c>
       <c r="D17" t="n">
         <v>949.144</v>
@@ -2005,7 +2005,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4519269466400146</v>
+        <v>0.4397239685058594</v>
       </c>
       <c r="D18" t="n">
         <v>123.917</v>
@@ -2021,7 +2021,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.443727970123291</v>
+        <v>0.4314620494842529</v>
       </c>
       <c r="D19" t="n">
         <v>870.147</v>
@@ -2037,7 +2037,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.444377899169922</v>
+        <v>1.139634132385254</v>
       </c>
       <c r="D20" t="n">
         <v>193.665</v>
@@ -2053,7 +2053,7 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.580393075942993</v>
+        <v>1.429899215698242</v>
       </c>
       <c r="D21" t="n">
         <v>947.189</v>
@@ -2069,7 +2069,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4275410175323486</v>
+        <v>0.4216740131378174</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -2085,7 +2085,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4958877563476562</v>
+        <v>0.4319171905517578</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -2101,7 +2101,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.356751203536987</v>
+        <v>1.42549204826355</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -2117,7 +2117,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.545325994491577</v>
+        <v>1.385066032409668</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -2174,7 +2174,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4355790615081787</v>
+        <v>0.4272961616516113</v>
       </c>
       <c r="D2" t="n">
         <v>125.138</v>
@@ -2190,7 +2190,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4387431144714355</v>
+        <v>0.429718017578125</v>
       </c>
       <c r="D3" t="n">
         <v>165.039</v>
@@ -2206,7 +2206,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.452300071716309</v>
+        <v>1.292093992233276</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -2222,7 +2222,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.441017866134644</v>
+        <v>1.316579103469849</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -2238,7 +2238,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4257237911224365</v>
+        <v>0.4226818084716797</v>
       </c>
       <c r="D6" t="n">
         <v>123.183</v>
@@ -2254,7 +2254,7 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5386137962341309</v>
+        <v>0.4203741550445557</v>
       </c>
       <c r="D7" t="n">
         <v>163.084</v>
@@ -2270,7 +2270,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.409488201141357</v>
+        <v>1.255342960357666</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -2286,7 +2286,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.329957008361816</v>
+        <v>1.285961866378784</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -2302,7 +2302,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4312529563903809</v>
+        <v>0.4286561012268066</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -2318,7 +2318,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4263341426849365</v>
+        <v>0.459641695022583</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -2334,7 +2334,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.365398645401001</v>
+        <v>1.263900279998779</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -2350,7 +2350,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.329380750656128</v>
+        <v>1.297761917114258</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -2366,7 +2366,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4283866882324219</v>
+        <v>0.4191501140594482</v>
       </c>
       <c r="D14" t="n">
         <v>125.872</v>
@@ -2382,7 +2382,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4474802017211914</v>
+        <v>0.4292490482330322</v>
       </c>
       <c r="D15" t="n">
         <v>872.102</v>
@@ -2398,7 +2398,7 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.481137037277222</v>
+        <v>1.128223896026611</v>
       </c>
       <c r="D16" t="n">
         <v>195.62</v>
@@ -2414,7 +2414,7 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.498775005340576</v>
+        <v>1.106600046157837</v>
       </c>
       <c r="D17" t="n">
         <v>949.144</v>
@@ -2430,7 +2430,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4297308921813965</v>
+        <v>0.4409809112548828</v>
       </c>
       <c r="D18" t="n">
         <v>123.917</v>
@@ -2446,7 +2446,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.426426887512207</v>
+        <v>0.4425888061523438</v>
       </c>
       <c r="D19" t="n">
         <v>870.147</v>
@@ -2462,7 +2462,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.432435035705566</v>
+        <v>1.291695117950439</v>
       </c>
       <c r="D20" t="n">
         <v>193.665</v>
@@ -2478,7 +2478,7 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.508118867874146</v>
+        <v>1.329630136489868</v>
       </c>
       <c r="D21" t="n">
         <v>947.189</v>
@@ -2494,7 +2494,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4164950847625732</v>
+        <v>0.4272251129150391</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -2510,7 +2510,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4386470317840576</v>
+        <v>0.4303121566772461</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -2526,7 +2526,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.41718602180481</v>
+        <v>1.302917003631592</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -2542,7 +2542,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.474224090576172</v>
+        <v>1.529135704040527</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4361031055450439</v>
+        <v>0.4391469955444336</v>
       </c>
       <c r="D2" t="n">
         <v>125.138</v>
@@ -2615,7 +2615,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.441774845123291</v>
+        <v>0.4319379329681396</v>
       </c>
       <c r="D3" t="n">
         <v>165.039</v>
@@ -2631,7 +2631,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.446278095245361</v>
+        <v>1.254822015762329</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -2647,7 +2647,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.402477025985718</v>
+        <v>1.284945249557495</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -2663,7 +2663,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4376227855682373</v>
+        <v>0.4249410629272461</v>
       </c>
       <c r="D6" t="n">
         <v>123.183</v>
@@ -2679,7 +2679,7 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4455990791320801</v>
+        <v>0.4337069988250732</v>
       </c>
       <c r="D7" t="n">
         <v>163.084</v>
@@ -2695,7 +2695,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.451709747314453</v>
+        <v>1.351867914199829</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -2711,7 +2711,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.19521689414978</v>
+        <v>1.202454090118408</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -2727,7 +2727,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4858040809631348</v>
+        <v>0.4569339752197266</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -2743,7 +2743,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4235730171203613</v>
+        <v>0.4602189064025879</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -2759,7 +2759,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.449753046035767</v>
+        <v>1.388458013534546</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -2775,7 +2775,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.272002935409546</v>
+        <v>1.334567308425903</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -2791,7 +2791,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4558477401733398</v>
+        <v>0.4219319820404053</v>
       </c>
       <c r="D14" t="n">
         <v>125.872</v>
@@ -2807,7 +2807,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4405779838562012</v>
+        <v>0.4348909854888916</v>
       </c>
       <c r="D15" t="n">
         <v>872.102</v>
@@ -2823,7 +2823,7 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.473556041717529</v>
+        <v>1.372591257095337</v>
       </c>
       <c r="D16" t="n">
         <v>195.62</v>
@@ -2839,7 +2839,7 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.51804518699646</v>
+        <v>1.481003046035767</v>
       </c>
       <c r="D17" t="n">
         <v>949.144</v>
@@ -2855,7 +2855,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4274678230285645</v>
+        <v>0.4727227687835693</v>
       </c>
       <c r="D18" t="n">
         <v>123.917</v>
@@ -2871,7 +2871,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4459719657897949</v>
+        <v>0.4351041316986084</v>
       </c>
       <c r="D19" t="n">
         <v>870.147</v>
@@ -2887,7 +2887,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.236172914505005</v>
+        <v>1.219046831130981</v>
       </c>
       <c r="D20" t="n">
         <v>193.665</v>
@@ -2903,7 +2903,7 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.415552854537964</v>
+        <v>1.410544157028198</v>
       </c>
       <c r="D21" t="n">
         <v>947.189</v>
@@ -2919,7 +2919,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4428670406341553</v>
+        <v>0.4246070384979248</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -2935,7 +2935,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4329977035522461</v>
+        <v>0.5581588745117188</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -2951,7 +2951,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.21524715423584</v>
+        <v>1.299402952194214</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -2967,7 +2967,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.621225357055664</v>
+        <v>1.577394008636475</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -3024,7 +3024,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4392960071563721</v>
+        <v>0.4427371025085449</v>
       </c>
       <c r="D2" t="n">
         <v>125.138</v>
@@ -3040,7 +3040,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.437798023223877</v>
+        <v>0.4379000663757324</v>
       </c>
       <c r="D3" t="n">
         <v>165.039</v>
@@ -3056,7 +3056,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.367498874664307</v>
+        <v>1.324496030807495</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -3072,7 +3072,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.328980922698975</v>
+        <v>1.231096982955933</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -3088,7 +3088,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4126379489898682</v>
+        <v>0.4206233024597168</v>
       </c>
       <c r="D6" t="n">
         <v>123.183</v>
@@ -3104,7 +3104,7 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6599838733673096</v>
+        <v>0.4268491268157959</v>
       </c>
       <c r="D7" t="n">
         <v>163.084</v>
@@ -3120,7 +3120,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.516254901885986</v>
+        <v>1.345348834991455</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -3136,7 +3136,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.393776893615723</v>
+        <v>1.337001085281372</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -3152,7 +3152,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4261300563812256</v>
+        <v>0.4284601211547852</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -3168,7 +3168,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4398701190948486</v>
+        <v>0.4294369220733643</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -3184,7 +3184,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.403484106063843</v>
+        <v>1.341678857803345</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -3200,7 +3200,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.392981052398682</v>
+        <v>1.352610111236572</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -3216,7 +3216,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4271538257598877</v>
+        <v>0.4247810840606689</v>
       </c>
       <c r="D14" t="n">
         <v>125.872</v>
@@ -3232,7 +3232,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4371671676635742</v>
+        <v>0.4189212322235107</v>
       </c>
       <c r="D15" t="n">
         <v>872.102</v>
@@ -3248,7 +3248,7 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.433621168136597</v>
+        <v>1.236775159835815</v>
       </c>
       <c r="D16" t="n">
         <v>195.62</v>
@@ -3264,7 +3264,7 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.531654834747314</v>
+        <v>1.383798837661743</v>
       </c>
       <c r="D17" t="n">
         <v>949.144</v>
@@ -3280,7 +3280,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4539337158203125</v>
+        <v>0.4284100532531738</v>
       </c>
       <c r="D18" t="n">
         <v>123.917</v>
@@ -3296,7 +3296,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4218649864196777</v>
+        <v>0.4393858909606934</v>
       </c>
       <c r="D19" t="n">
         <v>870.147</v>
@@ -3312,7 +3312,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.352504014968872</v>
+        <v>1.251427173614502</v>
       </c>
       <c r="D20" t="n">
         <v>193.665</v>
@@ -3328,7 +3328,7 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.540985822677612</v>
+        <v>1.33215594291687</v>
       </c>
       <c r="D21" t="n">
         <v>947.189</v>
@@ -3344,7 +3344,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4383041858673096</v>
+        <v>0.4398970603942871</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -3360,7 +3360,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4370059967041016</v>
+        <v>0.5538680553436279</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -3376,7 +3376,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.55224609375</v>
+        <v>1.310861587524414</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -3392,7 +3392,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.46717095375061</v>
+        <v>1.42916202545166</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -3449,7 +3449,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.427919864654541</v>
+        <v>0.4593741893768311</v>
       </c>
       <c r="D2" t="n">
         <v>125.138</v>
@@ -3465,7 +3465,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4339540004730225</v>
+        <v>0.4213979244232178</v>
       </c>
       <c r="D3" t="n">
         <v>165.039</v>
@@ -3481,7 +3481,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.417825937271118</v>
+        <v>1.195499897003174</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -3497,7 +3497,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.41793417930603</v>
+        <v>1.292144775390625</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -3513,7 +3513,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4445719718933105</v>
+        <v>0.4276869297027588</v>
       </c>
       <c r="D6" t="n">
         <v>123.183</v>
@@ -3529,7 +3529,7 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4444401264190674</v>
+        <v>0.4279298782348633</v>
       </c>
       <c r="D7" t="n">
         <v>163.084</v>
@@ -3545,7 +3545,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.449261903762817</v>
+        <v>1.303791046142578</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -3561,7 +3561,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.506863832473755</v>
+        <v>1.220924854278564</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -3577,7 +3577,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4349651336669922</v>
+        <v>0.5356349945068359</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -3593,7 +3593,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4218950271606445</v>
+        <v>0.4343400001525879</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -3609,7 +3609,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.566615104675293</v>
+        <v>1.345978021621704</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -3625,7 +3625,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.489285945892334</v>
+        <v>1.436354875564575</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -3641,7 +3641,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4080069065093994</v>
+        <v>0.4245009422302246</v>
       </c>
       <c r="D14" t="n">
         <v>125.872</v>
@@ -3657,7 +3657,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4429659843444824</v>
+        <v>0.4334759712219238</v>
       </c>
       <c r="D15" t="n">
         <v>872.102</v>
@@ -3673,7 +3673,7 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.2000732421875</v>
+        <v>1.31840181350708</v>
       </c>
       <c r="D16" t="n">
         <v>195.62</v>
@@ -3689,7 +3689,7 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.194006204605103</v>
+        <v>1.327425003051758</v>
       </c>
       <c r="D17" t="n">
         <v>949.144</v>
@@ -3705,7 +3705,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4276599884033203</v>
+        <v>0.42380690574646</v>
       </c>
       <c r="D18" t="n">
         <v>123.917</v>
@@ -3721,7 +3721,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4445650577545166</v>
+        <v>0.5002670288085938</v>
       </c>
       <c r="D19" t="n">
         <v>870.147</v>
@@ -3737,7 +3737,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.435622930526733</v>
+        <v>1.347526788711548</v>
       </c>
       <c r="D20" t="n">
         <v>193.665</v>
@@ -3753,7 +3753,7 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.523950815200806</v>
+        <v>1.436121940612793</v>
       </c>
       <c r="D21" t="n">
         <v>947.189</v>
@@ -3769,7 +3769,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4362759590148926</v>
+        <v>0.4463112354278564</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -3785,7 +3785,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5320520401000977</v>
+        <v>0.4366881847381592</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -3801,7 +3801,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.442564010620117</v>
+        <v>1.131692171096802</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -3817,7 +3817,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.483737230300903</v>
+        <v>1.365744113922119</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -3874,7 +3874,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4422690868377686</v>
+        <v>0.4368689060211182</v>
       </c>
       <c r="D2" t="n">
         <v>125.138</v>
@@ -3890,7 +3890,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4393882751464844</v>
+        <v>0.4657909870147705</v>
       </c>
       <c r="D3" t="n">
         <v>165.039</v>
@@ -3906,7 +3906,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.388011932373047</v>
+        <v>1.373492002487183</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -3922,7 +3922,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.349748134613037</v>
+        <v>1.294454097747803</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -3938,7 +3938,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4403467178344727</v>
+        <v>0.4322271347045898</v>
       </c>
       <c r="D6" t="n">
         <v>123.183</v>
@@ -3954,7 +3954,7 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.429232120513916</v>
+        <v>0.5354471206665039</v>
       </c>
       <c r="D7" t="n">
         <v>163.084</v>
@@ -3970,7 +3970,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>5.61484432220459</v>
+        <v>1.243941068649292</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -3986,7 +3986,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.417490005493164</v>
+        <v>1.223529100418091</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -4002,7 +4002,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.465036153793335</v>
+        <v>0.4251782894134521</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -4018,7 +4018,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4322769641876221</v>
+        <v>0.4192829132080078</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -4034,7 +4034,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.405952930450439</v>
+        <v>1.111860990524292</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -4050,7 +4050,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.357321977615356</v>
+        <v>1.286669015884399</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -4066,7 +4066,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4397187232971191</v>
+        <v>0.4292097091674805</v>
       </c>
       <c r="D14" t="n">
         <v>125.872</v>
@@ -4082,7 +4082,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4404458999633789</v>
+        <v>0.4424030780792236</v>
       </c>
       <c r="D15" t="n">
         <v>872.102</v>
@@ -4098,7 +4098,7 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.4217689037323</v>
+        <v>1.215646982192993</v>
       </c>
       <c r="D16" t="n">
         <v>195.62</v>
@@ -4114,7 +4114,7 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.506517887115479</v>
+        <v>1.313348054885864</v>
       </c>
       <c r="D17" t="n">
         <v>949.144</v>
@@ -4130,7 +4130,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4261469841003418</v>
+        <v>0.4208691120147705</v>
       </c>
       <c r="D18" t="n">
         <v>123.917</v>
@@ -4146,7 +4146,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4436450004577637</v>
+        <v>0.4211139678955078</v>
       </c>
       <c r="D19" t="n">
         <v>870.147</v>
@@ -4162,7 +4162,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.40155291557312</v>
+        <v>1.332584857940674</v>
       </c>
       <c r="D20" t="n">
         <v>193.665</v>
@@ -4178,7 +4178,7 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.525283098220825</v>
+        <v>1.407764911651611</v>
       </c>
       <c r="D21" t="n">
         <v>947.189</v>
@@ -4194,7 +4194,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4382100105285645</v>
+        <v>0.4365329742431641</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -4210,7 +4210,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4377593994140625</v>
+        <v>0.4225718975067139</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -4226,7 +4226,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.425584316253662</v>
+        <v>1.324783802032471</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -4242,7 +4242,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.193950891494751</v>
+        <v>1.303487062454224</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>
@@ -4299,7 +4299,7 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4532370567321777</v>
+        <v>0.4374501705169678</v>
       </c>
       <c r="D2" t="n">
         <v>125.138</v>
@@ -4315,7 +4315,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4414842128753662</v>
+        <v>0.424015998840332</v>
       </c>
       <c r="D3" t="n">
         <v>165.039</v>
@@ -4331,7 +4331,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.447173833847046</v>
+        <v>1.442366123199463</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -4347,7 +4347,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.394661903381348</v>
+        <v>1.333343029022217</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -4363,7 +4363,7 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4314720630645752</v>
+        <v>0.4317660331726074</v>
       </c>
       <c r="D6" t="n">
         <v>123.183</v>
@@ -4379,7 +4379,7 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4245169162750244</v>
+        <v>0.4220020771026611</v>
       </c>
       <c r="D7" t="n">
         <v>163.084</v>
@@ -4395,7 +4395,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.397682905197144</v>
+        <v>1.348523855209351</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -4411,7 +4411,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.420475006103516</v>
+        <v>1.320695877075195</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -4427,7 +4427,7 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.441093921661377</v>
+        <v>0.4123930931091309</v>
       </c>
       <c r="D10" t="n">
         <v>125.138</v>
@@ -4443,7 +4443,7 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4271931648254395</v>
+        <v>0.4259529113769531</v>
       </c>
       <c r="D11" t="n">
         <v>165.039</v>
@@ -4459,7 +4459,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.382122993469238</v>
+        <v>1.37399697303772</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -4475,7 +4475,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.453347206115723</v>
+        <v>1.323621034622192</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -4491,7 +4491,7 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4351880550384521</v>
+        <v>0.4240760803222656</v>
       </c>
       <c r="D14" t="n">
         <v>125.872</v>
@@ -4507,7 +4507,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4351270198822021</v>
+        <v>0.4505798816680908</v>
       </c>
       <c r="D15" t="n">
         <v>872.102</v>
@@ -4523,7 +4523,7 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.41590404510498</v>
+        <v>1.195128202438354</v>
       </c>
       <c r="D16" t="n">
         <v>195.62</v>
@@ -4539,7 +4539,7 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.739049196243286</v>
+        <v>1.35881495475769</v>
       </c>
       <c r="D17" t="n">
         <v>949.144</v>
@@ -4555,7 +4555,7 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4254059791564941</v>
+        <v>0.4305620193481445</v>
       </c>
       <c r="D18" t="n">
         <v>123.917</v>
@@ -4571,7 +4571,7 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4221301078796387</v>
+        <v>0.4371142387390137</v>
       </c>
       <c r="D19" t="n">
         <v>870.147</v>
@@ -4587,7 +4587,7 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.35145092010498</v>
+        <v>1.305341005325317</v>
       </c>
       <c r="D20" t="n">
         <v>193.665</v>
@@ -4603,7 +4603,7 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.433825016021729</v>
+        <v>1.378271341323853</v>
       </c>
       <c r="D21" t="n">
         <v>947.189</v>
@@ -4619,7 +4619,7 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.420555591583252</v>
+        <v>0.4285409450531006</v>
       </c>
       <c r="D22" t="n">
         <v>125.872</v>
@@ -4635,7 +4635,7 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4431660175323486</v>
+        <v>0.4335050582885742</v>
       </c>
       <c r="D23" t="n">
         <v>872.102</v>
@@ -4651,7 +4651,7 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.461703300476074</v>
+        <v>1.156567811965942</v>
       </c>
       <c r="D24" t="n">
         <v>195.62</v>
@@ -4667,7 +4667,7 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.617735147476196</v>
+        <v>1.415991067886353</v>
       </c>
       <c r="D25" t="n">
         <v>949.144</v>

--- a/client/test_results/unfiltered_chrome_test_results.xlsx
+++ b/client/test_results/unfiltered_chrome_test_results.xlsx
@@ -474,10 +474,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4633231163024902</v>
+        <v>0.4214818477630615</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -490,10 +490,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4203987121582031</v>
+        <v>0.4316811561584473</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -506,7 +506,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.221764087677002</v>
+        <v>1.395532131195068</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -522,7 +522,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.300970792770386</v>
+        <v>1.464915037155151</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -538,10 +538,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.433258056640625</v>
+        <v>0.4341468811035156</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -554,10 +554,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4549319744110107</v>
+        <v>0.5319774150848389</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -570,7 +570,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.350028038024902</v>
+        <v>1.412826061248779</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -586,7 +586,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.150414943695068</v>
+        <v>1.363077878952026</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -602,10 +602,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4399750232696533</v>
+        <v>0.4501280784606934</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -618,10 +618,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.455927848815918</v>
+        <v>0.4381740093231201</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -634,7 +634,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.317913055419922</v>
+        <v>1.336018800735474</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -650,7 +650,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.331198930740356</v>
+        <v>1.438045978546143</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -666,10 +666,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4481332302093506</v>
+        <v>0.5243489742279053</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="15">
@@ -682,10 +682,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.442209005355835</v>
+        <v>0.4315886497497559</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="16">
@@ -698,10 +698,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.367228031158447</v>
+        <v>1.473867893218994</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="17">
@@ -714,10 +714,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.345281839370728</v>
+        <v>1.30167293548584</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
     <row r="18">
@@ -730,10 +730,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4255490303039551</v>
+        <v>0.4260647296905518</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.553</v>
       </c>
     </row>
     <row r="19">
@@ -746,10 +746,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4412481784820557</v>
+        <v>0.4222111701965332</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>515.739</v>
       </c>
     </row>
     <row r="20">
@@ -762,10 +762,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.243354082107544</v>
+        <v>1.374825000762939</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.782</v>
       </c>
     </row>
     <row r="21">
@@ -778,10 +778,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.342966079711914</v>
+        <v>1.453879117965698</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>592.7809999999999</v>
       </c>
     </row>
     <row r="22">
@@ -794,10 +794,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4318010807037354</v>
+        <v>0.4521071910858154</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -810,10 +810,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4266030788421631</v>
+        <v>0.4363338947296143</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -826,10 +826,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.452513694763184</v>
+        <v>1.534427165985107</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -842,10 +842,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.417011022567749</v>
+        <v>1.4111008644104</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -899,10 +899,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.428009033203125</v>
+        <v>0.4292652606964111</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -915,10 +915,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4374241828918457</v>
+        <v>0.5173029899597168</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -931,7 +931,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.320388078689575</v>
+        <v>1.447437047958374</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -947,7 +947,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.325240135192871</v>
+        <v>1.453003883361816</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -963,10 +963,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5170509815216064</v>
+        <v>0.4557640552520752</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -979,10 +979,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4367480278015137</v>
+        <v>0.4328622817993164</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -995,7 +995,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.076202869415283</v>
+        <v>1.405336856842041</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -1011,7 +1011,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.214572191238403</v>
+        <v>1.427749156951904</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -1027,10 +1027,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4168782234191895</v>
+        <v>0.7302572727203369</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -1043,10 +1043,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.436622142791748</v>
+        <v>0.4709491729736328</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -1059,7 +1059,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.290760040283203</v>
+        <v>1.357064008712769</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -1075,7 +1075,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.266845941543579</v>
+        <v>1.368257761001587</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -1091,10 +1091,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4276890754699707</v>
+        <v>0.4155302047729492</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="15">
@@ -1107,10 +1107,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.450225830078125</v>
+        <v>0.4288508892059326</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="16">
@@ -1123,10 +1123,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.233431100845337</v>
+        <v>1.415249824523926</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="17">
@@ -1139,10 +1139,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.429123163223267</v>
+        <v>1.425734043121338</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
     <row r="18">
@@ -1155,10 +1155,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4321107864379883</v>
+        <v>0.4411888122558594</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.553</v>
       </c>
     </row>
     <row r="19">
@@ -1171,10 +1171,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4254140853881836</v>
+        <v>0.5407679080963135</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>515.739</v>
       </c>
     </row>
     <row r="20">
@@ -1187,10 +1187,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.347548961639404</v>
+        <v>1.370249032974243</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.782</v>
       </c>
     </row>
     <row r="21">
@@ -1203,10 +1203,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.292286396026611</v>
+        <v>1.422538042068481</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>592.7809999999999</v>
       </c>
     </row>
     <row r="22">
@@ -1219,10 +1219,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4821310043334961</v>
+        <v>0.4283990859985352</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -1235,10 +1235,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4362730979919434</v>
+        <v>0.4364922046661377</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -1251,10 +1251,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.402483940124512</v>
+        <v>1.45944881439209</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -1267,10 +1267,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.360166311264038</v>
+        <v>1.391144990921021</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -1324,10 +1324,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.532257080078125</v>
+        <v>0.407559871673584</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -1340,10 +1340,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4324302673339844</v>
+        <v>0.4192960262298584</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -1356,7 +1356,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.34174108505249</v>
+        <v>1.271319150924683</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -1372,7 +1372,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.326030969619751</v>
+        <v>1.35237717628479</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -1388,10 +1388,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4441838264465332</v>
+        <v>0.4203901290893555</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -1404,10 +1404,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4464156627655029</v>
+        <v>0.4512548446655273</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -1420,7 +1420,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.30009913444519</v>
+        <v>1.403648138046265</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -1436,7 +1436,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.335432052612305</v>
+        <v>1.449164152145386</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -1452,10 +1452,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4291322231292725</v>
+        <v>0.4157009124755859</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -1468,10 +1468,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4314730167388916</v>
+        <v>0.4360568523406982</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -1484,7 +1484,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.276188850402832</v>
+        <v>1.368690013885498</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -1500,7 +1500,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.218039989471436</v>
+        <v>1.443742990493774</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -1516,10 +1516,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5397670269012451</v>
+        <v>0.4260590076446533</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="15">
@@ -1532,10 +1532,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4121761322021484</v>
+        <v>0.4369668960571289</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="16">
@@ -1548,10 +1548,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.319351196289062</v>
+        <v>1.306543111801147</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="17">
@@ -1564,10 +1564,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.365796089172363</v>
+        <v>1.419833183288574</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
     <row r="18">
@@ -1580,10 +1580,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4340159893035889</v>
+        <v>0.4372432231903076</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.553</v>
       </c>
     </row>
     <row r="19">
@@ -1596,10 +1596,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4467020034790039</v>
+        <v>0.4381020069122314</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>515.739</v>
       </c>
     </row>
     <row r="20">
@@ -1612,10 +1612,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.243121862411499</v>
+        <v>1.384590148925781</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.782</v>
       </c>
     </row>
     <row r="21">
@@ -1628,10 +1628,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.44587516784668</v>
+        <v>1.38471508026123</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>592.7809999999999</v>
       </c>
     </row>
     <row r="22">
@@ -1644,10 +1644,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4409449100494385</v>
+        <v>0.4116768836975098</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -1660,10 +1660,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4300942420959473</v>
+        <v>0.4274637699127197</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -1676,10 +1676,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.243246793746948</v>
+        <v>1.306601047515869</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -1692,10 +1692,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.346404075622559</v>
+        <v>1.460140943527222</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -1749,10 +1749,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4374251365661621</v>
+        <v>0.4440290927886963</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -1765,10 +1765,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4390561580657959</v>
+        <v>0.4289231300354004</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -1781,7 +1781,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.242986917495728</v>
+        <v>1.41565203666687</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -1797,7 +1797,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.325007915496826</v>
+        <v>1.416562795639038</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -1813,10 +1813,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4269781112670898</v>
+        <v>0.4309358596801758</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -1829,10 +1829,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4164721965789795</v>
+        <v>0.5484011173248291</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -1845,7 +1845,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.296361923217773</v>
+        <v>1.450959920883179</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -1861,7 +1861,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.314402103424072</v>
+        <v>1.450999975204468</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -1877,10 +1877,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4435548782348633</v>
+        <v>0.4274601936340332</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -1893,10 +1893,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.441558837890625</v>
+        <v>0.4352138042449951</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -1909,7 +1909,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.331006288528442</v>
+        <v>1.425270080566406</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -1925,7 +1925,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.285760164260864</v>
+        <v>1.440330982208252</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -1941,10 +1941,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4297029972076416</v>
+        <v>0.4199342727661133</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="15">
@@ -1957,10 +1957,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5377228260040283</v>
+        <v>0.4284729957580566</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="16">
@@ -1973,10 +1973,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.155935287475586</v>
+        <v>1.499673843383789</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="17">
@@ -1989,10 +1989,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.314589023590088</v>
+        <v>1.409030914306641</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
     <row r="18">
@@ -2005,10 +2005,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.427987813949585</v>
+        <v>0.4352641105651855</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.553</v>
       </c>
     </row>
     <row r="19">
@@ -2021,10 +2021,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4116101264953613</v>
+        <v>0.4318320751190186</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>515.739</v>
       </c>
     </row>
     <row r="20">
@@ -2037,10 +2037,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.405841827392578</v>
+        <v>1.301047086715698</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.782</v>
       </c>
     </row>
     <row r="21">
@@ -2053,10 +2053,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.459662675857544</v>
+        <v>1.431926012039185</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>592.7809999999999</v>
       </c>
     </row>
     <row r="22">
@@ -2069,10 +2069,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4252932071685791</v>
+        <v>0.4398598670959473</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -2085,10 +2085,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4514350891113281</v>
+        <v>0.4289538860321045</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -2101,10 +2101,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.531592845916748</v>
+        <v>1.500401973724365</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -2117,10 +2117,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.349689960479736</v>
+        <v>1.311959981918335</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -2174,10 +2174,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.455449104309082</v>
+        <v>0.4335050582885742</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -2190,10 +2190,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.424004077911377</v>
+        <v>0.4449741840362549</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -2206,7 +2206,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.315565824508667</v>
+        <v>1.446481943130493</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -2222,7 +2222,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.219021081924438</v>
+        <v>1.425702095031738</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -2238,10 +2238,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4361498355865479</v>
+        <v>0.4189920425415039</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -2254,10 +2254,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4366369247436523</v>
+        <v>0.4331910610198975</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -2270,7 +2270,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.29536509513855</v>
+        <v>1.380119800567627</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -2286,7 +2286,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.338325023651123</v>
+        <v>1.442757844924927</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -2302,10 +2302,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4348001480102539</v>
+        <v>0.4252638816833496</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -2318,10 +2318,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4658839702606201</v>
+        <v>0.4206769466400146</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -2334,7 +2334,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.183084011077881</v>
+        <v>1.426987886428833</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -2350,7 +2350,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.158339023590088</v>
+        <v>1.438377141952515</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -2366,10 +2366,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5816521644592285</v>
+        <v>0.4392290115356445</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="15">
@@ -2382,10 +2382,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4360268115997314</v>
+        <v>0.4356529712677002</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="16">
@@ -2398,10 +2398,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.245451927185059</v>
+        <v>1.440451860427856</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="17">
@@ -2414,10 +2414,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.463679075241089</v>
+        <v>1.433127164840698</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
     <row r="18">
@@ -2430,10 +2430,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4486160278320312</v>
+        <v>0.4604880809783936</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.553</v>
       </c>
     </row>
     <row r="19">
@@ -2446,10 +2446,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4385690689086914</v>
+        <v>0.4263241291046143</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>515.739</v>
       </c>
     </row>
     <row r="20">
@@ -2462,10 +2462,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.201029300689697</v>
+        <v>1.246198177337646</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.782</v>
       </c>
     </row>
     <row r="21">
@@ -2478,10 +2478,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.392369031906128</v>
+        <v>1.282994985580444</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>592.7809999999999</v>
       </c>
     </row>
     <row r="22">
@@ -2494,10 +2494,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.426365852355957</v>
+        <v>0.4233620166778564</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -2510,10 +2510,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4304590225219727</v>
+        <v>0.4204039573669434</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -2526,10 +2526,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.35219407081604</v>
+        <v>1.292927026748657</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -2542,10 +2542,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.403182983398438</v>
+        <v>1.358556985855103</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -2599,10 +2599,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4217140674591064</v>
+        <v>0.4402360916137695</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -2615,10 +2615,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5409538745880127</v>
+        <v>0.4343628883361816</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -2631,7 +2631,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.389573097229004</v>
+        <v>1.4598708152771</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -2647,7 +2647,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.263028144836426</v>
+        <v>1.425517082214355</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -2663,10 +2663,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4346868991851807</v>
+        <v>0.4236061573028564</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -2679,10 +2679,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5433149337768555</v>
+        <v>0.4423251152038574</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -2695,7 +2695,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.373741149902344</v>
+        <v>1.466276168823242</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -2711,7 +2711,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.325154781341553</v>
+        <v>1.58062481880188</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -2727,10 +2727,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4307050704956055</v>
+        <v>0.4377357959747314</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2743,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4314632415771484</v>
+        <v>0.4232180118560791</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -2759,7 +2759,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.360613107681274</v>
+        <v>1.430953979492188</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -2775,7 +2775,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.377447128295898</v>
+        <v>1.443079948425293</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -2791,10 +2791,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4201431274414062</v>
+        <v>0.4168100357055664</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="15">
@@ -2807,10 +2807,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4154970645904541</v>
+        <v>0.4376540184020996</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="16">
@@ -2823,10 +2823,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.357745885848999</v>
+        <v>1.183867931365967</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="17">
@@ -2839,10 +2839,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.434063911437988</v>
+        <v>1.379309892654419</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
     <row r="18">
@@ -2855,10 +2855,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4308688640594482</v>
+        <v>0.4302871227264404</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.553</v>
       </c>
     </row>
     <row r="19">
@@ -2871,10 +2871,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4277849197387695</v>
+        <v>0.4247419834136963</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>515.739</v>
       </c>
     </row>
     <row r="20">
@@ -2887,10 +2887,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.368027925491333</v>
+        <v>1.410843133926392</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.782</v>
       </c>
     </row>
     <row r="21">
@@ -2903,10 +2903,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.403877735137939</v>
+        <v>1.480299949645996</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>592.7809999999999</v>
       </c>
     </row>
     <row r="22">
@@ -2919,10 +2919,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5547928810119629</v>
+        <v>0.432971715927124</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -2935,10 +2935,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4418549537658691</v>
+        <v>0.4332332611083984</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -2951,10 +2951,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.327131032943726</v>
+        <v>1.504070997238159</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -2967,10 +2967,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.409802913665771</v>
+        <v>1.482563972473145</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -3024,10 +3024,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4311559200286865</v>
+        <v>0.4273619651794434</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -3040,10 +3040,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.450221061706543</v>
+        <v>0.4276518821716309</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -3056,7 +3056,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.346531629562378</v>
+        <v>1.406551122665405</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -3072,7 +3072,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.294326066970825</v>
+        <v>1.513342380523682</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -3088,10 +3088,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5364670753479004</v>
+        <v>0.4253072738647461</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -3104,10 +3104,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4437351226806641</v>
+        <v>0.4225699901580811</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -3120,7 +3120,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.350089073181152</v>
+        <v>1.491465091705322</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -3136,7 +3136,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.342458963394165</v>
+        <v>1.405422210693359</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -3152,10 +3152,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4294369220733643</v>
+        <v>0.4271249771118164</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -3168,10 +3168,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4290459156036377</v>
+        <v>0.4336607456207275</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -3184,7 +3184,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.202131748199463</v>
+        <v>1.228074312210083</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -3200,7 +3200,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.294306039810181</v>
+        <v>1.372752904891968</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -3216,10 +3216,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4980940818786621</v>
+        <v>0.4301860332489014</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="15">
@@ -3232,10 +3232,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4320669174194336</v>
+        <v>0.4256420135498047</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="16">
@@ -3248,10 +3248,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.290891885757446</v>
+        <v>1.438523769378662</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="17">
@@ -3264,10 +3264,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.538572072982788</v>
+        <v>1.508023023605347</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
     <row r="18">
@@ -3280,10 +3280,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4379310607910156</v>
+        <v>0.4381339550018311</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.553</v>
       </c>
     </row>
     <row r="19">
@@ -3296,10 +3296,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4360220432281494</v>
+        <v>0.4429190158843994</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>515.739</v>
       </c>
     </row>
     <row r="20">
@@ -3312,10 +3312,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.356084108352661</v>
+        <v>1.819193840026855</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>85.622</v>
       </c>
     </row>
     <row r="21">
@@ -3328,10 +3328,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.453039169311523</v>
+        <v>1.385887861251831</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>592.7809999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3344,10 +3344,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4378161430358887</v>
+        <v>0.4363489151000977</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -3360,10 +3360,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.428098201751709</v>
+        <v>0.428473949432373</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -3376,10 +3376,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.359761953353882</v>
+        <v>1.577015161514282</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -3392,10 +3392,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.392975330352783</v>
+        <v>1.364395141601562</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -3449,10 +3449,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4365799427032471</v>
+        <v>0.4548182487487793</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -3465,10 +3465,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.435593843460083</v>
+        <v>0.4943430423736572</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -3481,7 +3481,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.289186000823975</v>
+        <v>1.440797090530396</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -3497,7 +3497,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.347917079925537</v>
+        <v>1.474444150924683</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -3513,10 +3513,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4229841232299805</v>
+        <v>0.433861255645752</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -3529,10 +3529,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4593572616577148</v>
+        <v>0.4346470832824707</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -3545,7 +3545,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.315310955047607</v>
+        <v>1.46547794342041</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -3561,7 +3561,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.368159055709839</v>
+        <v>1.402373790740967</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -3577,10 +3577,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5362601280212402</v>
+        <v>0.4180839061737061</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -3593,10 +3593,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4359729290008545</v>
+        <v>0.4343061447143555</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -3609,7 +3609,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.337597131729126</v>
+        <v>1.320222854614258</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -3625,7 +3625,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.292757034301758</v>
+        <v>1.362838983535767</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -3641,10 +3641,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.508544921875</v>
+        <v>0.452282190322876</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="15">
@@ -3657,10 +3657,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4457809925079346</v>
+        <v>0.4438662528991699</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="16">
@@ -3673,10 +3673,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.325267791748047</v>
+        <v>1.44970703125</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="17">
@@ -3689,10 +3689,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.575707912445068</v>
+        <v>1.343414783477783</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
     <row r="18">
@@ -3705,10 +3705,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4287970066070557</v>
+        <v>0.4320659637451172</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.553</v>
       </c>
     </row>
     <row r="19">
@@ -3721,10 +3721,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4351470470428467</v>
+        <v>0.4398887157440186</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>515.739</v>
       </c>
     </row>
     <row r="20">
@@ -3737,10 +3737,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.36491584777832</v>
+        <v>1.387781858444214</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.782</v>
       </c>
     </row>
     <row r="21">
@@ -3753,10 +3753,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.428388118743896</v>
+        <v>1.380947828292847</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>592.7809999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3769,10 +3769,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4473419189453125</v>
+        <v>0.438107967376709</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -3785,10 +3785,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4326169490814209</v>
+        <v>0.4520859718322754</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -3801,10 +3801,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.368690967559814</v>
+        <v>1.490622997283936</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -3817,10 +3817,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.454009056091309</v>
+        <v>1.512327909469604</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -3874,10 +3874,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4824788570404053</v>
+        <v>0.4207310676574707</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -3890,10 +3890,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4328060150146484</v>
+        <v>0.4424939155578613</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -3906,7 +3906,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.196820974349976</v>
+        <v>1.422754764556885</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -3922,7 +3922,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.333328723907471</v>
+        <v>1.46030330657959</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -3938,10 +3938,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4525182247161865</v>
+        <v>0.4401049613952637</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -3954,10 +3954,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4410140514373779</v>
+        <v>0.43367600440979</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -3970,7 +3970,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.304126024246216</v>
+        <v>1.430320024490356</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -3986,7 +3986,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.351600885391235</v>
+        <v>1.502155065536499</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -4002,10 +4002,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4426870346069336</v>
+        <v>0.4282741546630859</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -4018,10 +4018,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4222970008850098</v>
+        <v>0.542330265045166</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -4034,7 +4034,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.317275047302246</v>
+        <v>1.431810855865479</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -4050,7 +4050,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.346912860870361</v>
+        <v>1.386409997940063</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -4066,10 +4066,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5290136337280273</v>
+        <v>0.4273285865783691</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="15">
@@ -4082,10 +4082,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.44097900390625</v>
+        <v>0.4375531673431396</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="16">
@@ -4098,10 +4098,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.304349899291992</v>
+        <v>1.384865045547485</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="17">
@@ -4114,10 +4114,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.326241970062256</v>
+        <v>1.47286581993103</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
     <row r="18">
@@ -4130,10 +4130,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4342389106750488</v>
+        <v>0.4552371501922607</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.553</v>
       </c>
     </row>
     <row r="19">
@@ -4146,10 +4146,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4413089752197266</v>
+        <v>0.4838619232177734</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>515.739</v>
       </c>
     </row>
     <row r="20">
@@ -4162,10 +4162,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.300477981567383</v>
+        <v>1.394524812698364</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.782</v>
       </c>
     </row>
     <row r="21">
@@ -4178,10 +4178,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.427503108978271</v>
+        <v>1.480988264083862</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>592.7809999999999</v>
       </c>
     </row>
     <row r="22">
@@ -4194,10 +4194,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5249967575073242</v>
+        <v>0.4247758388519287</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -4210,10 +4210,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4259169101715088</v>
+        <v>0.4408891201019287</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -4226,10 +4226,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.426676034927368</v>
+        <v>1.440522193908691</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -4242,10 +4242,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.378606081008911</v>
+        <v>1.316580057144165</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
@@ -4299,10 +4299,10 @@
         <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4152288436889648</v>
+        <v>0.4709486961364746</v>
       </c>
       <c r="D2" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="3">
@@ -4315,10 +4315,10 @@
         <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4295620918273926</v>
+        <v>0.4388768672943115</v>
       </c>
       <c r="D3" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="4">
@@ -4331,7 +4331,7 @@
         <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.291805267333984</v>
+        <v>1.456664800643921</v>
       </c>
       <c r="D4" t="n">
         <v>189.782</v>
@@ -4347,7 +4347,7 @@
         <v>100</v>
       </c>
       <c r="C5" t="n">
-        <v>1.322793006896973</v>
+        <v>1.596696138381958</v>
       </c>
       <c r="D5" t="n">
         <v>242.24</v>
@@ -4363,10 +4363,10 @@
         <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>0.542057991027832</v>
+        <v>0.433488130569458</v>
       </c>
       <c r="D6" t="n">
-        <v>123.183</v>
+        <v>94.339</v>
       </c>
     </row>
     <row r="7">
@@ -4379,10 +4379,10 @@
         <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4320602416992188</v>
+        <v>0.4664731025695801</v>
       </c>
       <c r="D7" t="n">
-        <v>163.084</v>
+        <v>114.697</v>
       </c>
     </row>
     <row r="8">
@@ -4395,7 +4395,7 @@
         <v>100</v>
       </c>
       <c r="C8" t="n">
-        <v>1.38618278503418</v>
+        <v>1.444120168685913</v>
       </c>
       <c r="D8" t="n">
         <v>187.827</v>
@@ -4411,7 +4411,7 @@
         <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>1.338823080062866</v>
+        <v>1.200435876846313</v>
       </c>
       <c r="D9" t="n">
         <v>240.285</v>
@@ -4427,10 +4427,10 @@
         <v>100</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4228780269622803</v>
+        <v>0.4309210777282715</v>
       </c>
       <c r="D10" t="n">
-        <v>125.138</v>
+        <v>96.294</v>
       </c>
     </row>
     <row r="11">
@@ -4443,10 +4443,10 @@
         <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4493110179901123</v>
+        <v>0.4515459537506104</v>
       </c>
       <c r="D11" t="n">
-        <v>165.039</v>
+        <v>116.652</v>
       </c>
     </row>
     <row r="12">
@@ -4459,7 +4459,7 @@
         <v>100</v>
       </c>
       <c r="C12" t="n">
-        <v>1.285898923873901</v>
+        <v>1.478951215744019</v>
       </c>
       <c r="D12" t="n">
         <v>189.782</v>
@@ -4475,7 +4475,7 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>1.351062774658203</v>
+        <v>1.430891990661621</v>
       </c>
       <c r="D13" t="n">
         <v>242.24</v>
@@ -4491,10 +4491,10 @@
         <v>100</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4160511493682861</v>
+        <v>0.4359409809112549</v>
       </c>
       <c r="D14" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="15">
@@ -4507,10 +4507,10 @@
         <v>100</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4608869552612305</v>
+        <v>0.4167649745941162</v>
       </c>
       <c r="D15" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="16">
@@ -4523,10 +4523,10 @@
         <v>100</v>
       </c>
       <c r="C16" t="n">
-        <v>1.377227544784546</v>
+        <v>1.419221878051758</v>
       </c>
       <c r="D16" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="17">
@@ -4539,10 +4539,10 @@
         <v>100</v>
       </c>
       <c r="C17" t="n">
-        <v>1.443478107452393</v>
+        <v>1.366745233535767</v>
       </c>
       <c r="D17" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
     <row r="18">
@@ -4555,10 +4555,10 @@
         <v>100</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4280281066894531</v>
+        <v>0.4234619140625</v>
       </c>
       <c r="D18" t="n">
-        <v>123.917</v>
+        <v>91.553</v>
       </c>
     </row>
     <row r="19">
@@ -4571,10 +4571,10 @@
         <v>100</v>
       </c>
       <c r="C19" t="n">
-        <v>0.415020227432251</v>
+        <v>0.50860595703125</v>
       </c>
       <c r="D19" t="n">
-        <v>870.147</v>
+        <v>515.739</v>
       </c>
     </row>
     <row r="20">
@@ -4587,10 +4587,10 @@
         <v>100</v>
       </c>
       <c r="C20" t="n">
-        <v>1.352888107299805</v>
+        <v>1.431610107421875</v>
       </c>
       <c r="D20" t="n">
-        <v>193.665</v>
+        <v>162.782</v>
       </c>
     </row>
     <row r="21">
@@ -4603,10 +4603,10 @@
         <v>100</v>
       </c>
       <c r="C21" t="n">
-        <v>1.534424781799316</v>
+        <v>1.446475744247437</v>
       </c>
       <c r="D21" t="n">
-        <v>947.189</v>
+        <v>592.7809999999999</v>
       </c>
     </row>
     <row r="22">
@@ -4619,10 +4619,10 @@
         <v>100</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4576888084411621</v>
+        <v>0.426555871963501</v>
       </c>
       <c r="D22" t="n">
-        <v>125.872</v>
+        <v>93.508</v>
       </c>
     </row>
     <row r="23">
@@ -4635,10 +4635,10 @@
         <v>100</v>
       </c>
       <c r="C23" t="n">
-        <v>0.508317232131958</v>
+        <v>0.4528079032897949</v>
       </c>
       <c r="D23" t="n">
-        <v>872.102</v>
+        <v>517.694</v>
       </c>
     </row>
     <row r="24">
@@ -4651,10 +4651,10 @@
         <v>100</v>
       </c>
       <c r="C24" t="n">
-        <v>1.439881801605225</v>
+        <v>1.434351921081543</v>
       </c>
       <c r="D24" t="n">
-        <v>195.62</v>
+        <v>164.737</v>
       </c>
     </row>
     <row r="25">
@@ -4667,10 +4667,10 @@
         <v>100</v>
       </c>
       <c r="C25" t="n">
-        <v>1.382310152053833</v>
+        <v>1.438560009002686</v>
       </c>
       <c r="D25" t="n">
-        <v>949.144</v>
+        <v>594.736</v>
       </c>
     </row>
   </sheetData>
